--- a/result_1/Suicidal contract.xlsx
+++ b/result_1/Suicidal contract.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A807"/>
+  <dimension ref="A1:B807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>contract address</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +435,11 @@
           <t>0x000adad69101420129a64715a1a52b7348c5e633</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +447,9 @@
           <t>0x0033fb5561719b8b697b604466d6d39308c58191</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +457,9 @@
           <t>0x00676065a7854163c6a4d5f474496514d03e31c4</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +467,9 @@
           <t>0x009c80eff4f5d8fca2b961ee607b00b9c64ef9f2</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>815</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -474,6 +477,9 @@
           <t>0x01329995f618a3f28b0a197e51893f792c13b69b</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,6 +487,9 @@
           <t>0x0135c9a7bff72aa26e1d105ff5000e454e4dde7a</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>810</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -488,6 +497,9 @@
           <t>0x013620bf5142f9d8487e92c1d514c38e1b086613</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -495,6 +507,9 @@
           <t>0x0148179f1ff77e236e97b646502261ea29517d32</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -502,6 +517,9 @@
           <t>0x01d174f95cd17d0b5b24f1f89a35cfdb37929b30</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -509,6 +527,9 @@
           <t>0x01d6208f95cf2292c350fc8bb1b1f29230352675</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -516,6 +537,9 @@
           <t>0x021e5e6ab3efe5eb0c060b4c4c523c7470787ef5</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -523,6 +547,9 @@
           <t>0x0248f089a622b74cebaa62573605af9a44966bf1</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -530,6 +557,9 @@
           <t>0x02d3aea48b443a0026ed9cbc91b97d7335aba323</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -537,6 +567,9 @@
           <t>0x03209bde47da583547c17c47e7ca74bfa3dfb404</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -544,6 +577,9 @@
           <t>0x0326ade59900f4e99e029362a076063a6d542a58</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -551,6 +587,9 @@
           <t>0x033e698da77de33120c703e373f43525b10f8e68</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -558,6 +597,9 @@
           <t>0x0436d3110dee47f177bb5d9b7ea5ce5d712522e8</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -565,6 +607,9 @@
           <t>0x0472e3ccb2a3601b39880fb1059b466aa6151662</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -572,6 +617,9 @@
           <t>0x048f616fcc4dd825f4a0a3b095d2ef70046b30c3</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -579,6 +627,9 @@
           <t>0x04ebe325519223119ab6bde2b84e23a6ecd05d65</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -586,6 +637,9 @@
           <t>0x05cd27a978fc9f9919a5f4c5c03e5947ed7d4c4d</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -593,6 +647,9 @@
           <t>0x06b9737a7a625478fe5a65bf4bff4390ff6ace96</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -600,6 +657,9 @@
           <t>0x06df60b1f6248d57b291adede495f84b18fafdb3</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -607,6 +667,9 @@
           <t>0x06eb5444bd13815a77d72e336e8fe7dedb801709</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -614,6 +677,9 @@
           <t>0x075f0fa71550ddb9d10bedd55e717f80176b0481</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -621,6 +687,9 @@
           <t>0x0769ab44969d29bbc79ae0f57af5477496419ceb</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -628,6 +697,9 @@
           <t>0x07f5ddd0868782c86d7f1a86ab321a8db2c766fa</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -635,6 +707,9 @@
           <t>0x0848e84aa70274c1e51d71564bde2211ee0406f7</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -642,6 +717,9 @@
           <t>0x08573698b2b0aaf07f16395be3d3530598c0d972</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -649,6 +727,9 @@
           <t>0x098b6f16c0e6fff51b891cb3ef0248fda4c9f53b</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -656,6 +737,9 @@
           <t>0x09b510a0e0fa1886eed0e17ba9b42c001cfeb7f7</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -663,6 +747,9 @@
           <t>0x0a2e310409f7589c9e8640abf98ca2b7b35f938c</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -670,6 +757,9 @@
           <t>0x0a9b9d976de8e09f0b57d1d7f344abe77925145c</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -677,6 +767,9 @@
           <t>0x0aac73a7098578bcb34ed305e63a9bd4e9f9bb07</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -684,6 +777,9 @@
           <t>0x0aac84ef458e67758a2991a769d979981cd41fc4</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -691,6 +787,9 @@
           <t>0x0af46b0c6d12f6d498f623f9184ee9ac58c2b806</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -698,6 +797,9 @@
           <t>0x0afc9430e3c5b0949a58f49bc9d134dee87c74d1</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -705,6 +807,9 @@
           <t>0x0b4597d45be69bf1571b32e78ec02730f9743d3e</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -712,6 +817,9 @@
           <t>0x0b4abe9e916e9c00cc80c4c473386d1116d5bd8e</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -719,6 +827,9 @@
           <t>0x0b72b3fb545fe6cb63e27273078d7a8656a34c42</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -726,6 +837,9 @@
           <t>0x0be3e6e3d9e99036ccce4fd0b692016de860aa62</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>100581</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -733,6 +847,9 @@
           <t>0x0bf0872390a94c15aaa2865a2f9d8dec90b0af6c</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -740,6 +857,9 @@
           <t>0x0bf484a17015b8c999ddb64fa687e1f5e284120c</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -747,6 +867,9 @@
           <t>0x0ce36bad60211b40575ac03c0a4d06cccff44614</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -754,6 +877,9 @@
           <t>0x0d49b24f068a9a3ef60576c7a915ffd6844d6fdd</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -761,6 +887,9 @@
           <t>0x0d5baa6b2bc5b62edf7ac263078fa4b9c5e9c040</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -768,6 +897,9 @@
           <t>0x0d83102ec81853f3334bd2b9e9fcce7adf96ccc7</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -775,6 +907,9 @@
           <t>0x0d93b0188b86eae82201751c696b6bc0f96881f9</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -782,6 +917,9 @@
           <t>0x0de197dc289d680e734ccab866d529505b2638db</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>7812</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -789,6 +927,9 @@
           <t>0x0e532f97012693945bc073068a7d94501fc37dc5</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -796,6 +937,9 @@
           <t>0x0eaf3a45f6035565ee7fb61b242f562b77883fc4</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -803,6 +947,9 @@
           <t>0x101d2da95a784b2c5c3b2d33f942b8e3244332e1</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -810,6 +957,9 @@
           <t>0x105d97ef2e723f1cfb24519bc6ff15a6d091a3f1</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -817,6 +967,9 @@
           <t>0x11606995338d83acabcd06babaf4cdad66c73140</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -824,6 +977,9 @@
           <t>0x117b4ff6e29baa41592fbc02abd2c0b40110d6e6</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -831,6 +987,9 @@
           <t>0x1224d9f931417c8891249f829b411aa943f8ee98</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -838,6 +997,9 @@
           <t>0x12502e5b56dd58f9f256f756cd2ac9e42b1abce3</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -845,6 +1007,9 @@
           <t>0x126ae85a1ebf49dc946224f5268c6bd8338d49ae</t>
         </is>
       </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -852,6 +1017,9 @@
           <t>0x12db4b88fad2e21e075fd4382e77bd76a096e017</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -859,6 +1027,9 @@
           <t>0x131288b47c92409d0778d0aa2fbb8367e3399d33</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -866,6 +1037,9 @@
           <t>0x134d3c5575eaaa1365d9268bb2a4b4d8fd1c5907</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -873,6 +1047,9 @@
           <t>0x1367fc0b62c024de2be4ec22355d6614090ebc41</t>
         </is>
       </c>
+      <c r="B63" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -880,6 +1057,9 @@
           <t>0x138e8f61c1e1908e145c02a12879f68051499d21</t>
         </is>
       </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -887,6 +1067,9 @@
           <t>0x13ea3e8f20fdabb3996d7580df50143b93e4ba27</t>
         </is>
       </c>
+      <c r="B65" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -894,6 +1077,9 @@
           <t>0x141766882733cafa9033e8707548fdcac908db22</t>
         </is>
       </c>
+      <c r="B66" t="n">
+        <v>39025</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -901,6 +1087,9 @@
           <t>0x149b388c13bd10595a6671adff9de099a74ae177</t>
         </is>
       </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -908,6 +1097,9 @@
           <t>0x15873a4ec0b2b0be91844b0387cf6b8386226650</t>
         </is>
       </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -915,6 +1107,9 @@
           <t>0x15a1f9e9827bb0130b08479f3aa4d0f491274c8a</t>
         </is>
       </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -922,6 +1117,9 @@
           <t>0x1621530fec6f4b081712ab49f88ca78b60841ddf</t>
         </is>
       </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -929,6 +1127,9 @@
           <t>0x16741e64aec0585fb507d6966564b5c2b1aeeb34</t>
         </is>
       </c>
+      <c r="B71" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -936,6 +1137,9 @@
           <t>0x168521b94eb0ca6f9aea34a735c53bcff79abdaf</t>
         </is>
       </c>
+      <c r="B72" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -943,6 +1147,9 @@
           <t>0x16ba8a8c7cefb05c9a8dcb0bc04e05437081d228</t>
         </is>
       </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -950,6 +1157,9 @@
           <t>0x16eb52d84fb8085fb0c466c8f11f21e4efa6ed3d</t>
         </is>
       </c>
+      <c r="B74" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -957,6 +1167,9 @@
           <t>0x17683235257f2089e3e4acc9497f25386a529507</t>
         </is>
       </c>
+      <c r="B75" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -964,6 +1177,9 @@
           <t>0x17c3b17843a7dd182ba35d21a88a71d6c4af216a</t>
         </is>
       </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -971,6 +1187,9 @@
           <t>0x17f0badcdf99b0a94429478d2e9ddb1ff13174f7</t>
         </is>
       </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -978,6 +1197,9 @@
           <t>0x182fad6a68ebd9118549ec1091aa4eb95e234ef6</t>
         </is>
       </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -985,6 +1207,9 @@
           <t>0x187ac8adc20767be1635d4ad972e0c31d654f061</t>
         </is>
       </c>
+      <c r="B79" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -992,6 +1217,9 @@
           <t>0x18a5c3c789c0c923c61a36ca4124b12c699242b8</t>
         </is>
       </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -999,6 +1227,9 @@
           <t>0x191a70e9808c8d89be289cfe9001a7010dc3d78c</t>
         </is>
       </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1006,6 +1237,9 @@
           <t>0x197803b104641fbf6e206a425d9dc35dadc4f62f</t>
         </is>
       </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1013,6 +1247,9 @@
           <t>0x19923eadf80ab042c0b0928aaf8b395d4269bbeb</t>
         </is>
       </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1020,6 +1257,9 @@
           <t>0x1a2dd52fd95c9e8c329b8da4598e3c1d834d2853</t>
         </is>
       </c>
+      <c r="B84" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1027,6 +1267,9 @@
           <t>0x1ae8eac5045cd436e5f8ca78fee20323f4050c95</t>
         </is>
       </c>
+      <c r="B85" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1034,6 +1277,9 @@
           <t>0x1b002cd1ba79dfad65e8abfbb3a97826e4960fe5</t>
         </is>
       </c>
+      <c r="B86" t="n">
+        <v>7864</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1041,6 +1287,9 @@
           <t>0x1b442a27fc37b5527ecd5c5ead301dac1638810d</t>
         </is>
       </c>
+      <c r="B87" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1048,6 +1297,9 @@
           <t>0x1bdf171d5cc20544bf6e1536329a3d8dc166a78e</t>
         </is>
       </c>
+      <c r="B88" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1055,6 +1307,9 @@
           <t>0x1c0a9bbaddb924b42e3145610960dde119779560</t>
         </is>
       </c>
+      <c r="B89" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1062,6 +1317,9 @@
           <t>0x1c0f4c64821d6f8fa96975e20d5bb3ea79eb1071</t>
         </is>
       </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1069,6 +1327,9 @@
           <t>0x1c2389c0b8014be72e11849ec0aa790b03929e18</t>
         </is>
       </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1076,6 +1337,9 @@
           <t>0x1c5b760f133220855340003b43cc9113ec494823</t>
         </is>
       </c>
+      <c r="B92" t="n">
+        <v>2985</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1083,6 +1347,9 @@
           <t>0x1c923bc27998465f0b197ef73c7aeec9359169d3</t>
         </is>
       </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1090,6 +1357,9 @@
           <t>0x1ca6a09e02480be25c10284372cd21fde7d35a79</t>
         </is>
       </c>
+      <c r="B94" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1097,6 +1367,9 @@
           <t>0x1cca91a47db357445b89269f2fb4f647cd209968</t>
         </is>
       </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1104,6 +1377,9 @@
           <t>0x1d1112a2b7ea8e75a2f2b121d6e7c0f958a11fa7</t>
         </is>
       </c>
+      <c r="B96" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1111,6 +1387,9 @@
           <t>0x1d5854e7f4dd81d9d4c09097d3cc736c7771f234</t>
         </is>
       </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1118,6 +1397,9 @@
           <t>0x1e4dfaf4840fd9f4f4deb7e89437b37c4b8efdc5</t>
         </is>
       </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1125,6 +1407,9 @@
           <t>0x1e5e75c5e30a40d28ddca7e4ee0ba6bb9b8405f5</t>
         </is>
       </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1132,6 +1417,9 @@
           <t>0x1e8b362f354ca409c936f37d0cbae16b4f15bdf0</t>
         </is>
       </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1139,6 +1427,9 @@
           <t>0x1ebf20031b03b80e5f6fdbeb9f86d44145224006</t>
         </is>
       </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1146,6 +1437,9 @@
           <t>0x1fd76bc4e080e5f11703528961b2e515296c1c04</t>
         </is>
       </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1153,6 +1447,9 @@
           <t>0x1fdedef5c2da1ed9db44d80003a9592dfa18163c</t>
         </is>
       </c>
+      <c r="B103" t="n">
+        <v>565</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1160,6 +1457,9 @@
           <t>0x2051f57c5c1539c17e7d22caf46c83f861bd8e81</t>
         </is>
       </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1167,6 +1467,9 @@
           <t>0x2074b18f3099064460c855a7594bbadb7e71493d</t>
         </is>
       </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1174,6 +1477,9 @@
           <t>0x20b3d3f8a3e4f7b23382d844f2ca1d7026d69479</t>
         </is>
       </c>
+      <c r="B106" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1181,6 +1487,9 @@
           <t>0x20d7d4b07a2dcefe1bd99ac11eae2f5a8218e454</t>
         </is>
       </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1188,6 +1497,9 @@
           <t>0x20f5426df591a14b262327dc9866b0b5480a9f3f</t>
         </is>
       </c>
+      <c r="B108" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1195,6 +1507,9 @@
           <t>0x2101ba900918345003585b0a17de91570609d706</t>
         </is>
       </c>
+      <c r="B109" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1202,6 +1517,9 @@
           <t>0x216f7bd792bf74c9977ac1bb3967626eb2e0cf1c</t>
         </is>
       </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1209,6 +1527,9 @@
           <t>0x21add5ac33dcb3626f428514cabca653244620db</t>
         </is>
       </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1216,6 +1537,9 @@
           <t>0x223b0ee581719d4c6ae36f1ba1dd4101e5409c1c</t>
         </is>
       </c>
+      <c r="B112" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1223,6 +1547,9 @@
           <t>0x2282a327a9293895cacbce617b194e6031d6ffa4</t>
         </is>
       </c>
+      <c r="B113" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1230,6 +1557,9 @@
           <t>0x22d2913a4bf16c8dcf1ee655f9b547ac55368f88</t>
         </is>
       </c>
+      <c r="B114" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1237,6 +1567,9 @@
           <t>0x230b529e4fb71227266965084c76e7d0ffd4e44f</t>
         </is>
       </c>
+      <c r="B115" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1244,6 +1577,9 @@
           <t>0x23ef38333a7c0900e48ca43da46b07812c4aa1c0</t>
         </is>
       </c>
+      <c r="B116" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1251,6 +1587,9 @@
           <t>0x241e492c003dfbe6d60d8bfd1960c0b8b7944ebd</t>
         </is>
       </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1258,6 +1597,9 @@
           <t>0x245233bc8604d2097bfcbf3338959c46da04d9e0</t>
         </is>
       </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1265,6 +1607,9 @@
           <t>0x248f27e8e8478c7fb745205a1e603982eaf4a273</t>
         </is>
       </c>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1272,6 +1617,9 @@
           <t>0x24afa69210c46d703c693d0ab4295df080bd1c9b</t>
         </is>
       </c>
+      <c r="B120" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1279,6 +1627,9 @@
           <t>0x24b68cf0c67a54d6f67c469d2b9455f6953c3199</t>
         </is>
       </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1286,6 +1637,9 @@
           <t>0x24d530c0e939f665e535f30d3858c1c3283e8d28</t>
         </is>
       </c>
+      <c r="B122" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1293,6 +1647,9 @@
           <t>0x25926eff952bdcd3cb395a5614ab5094474b2dba</t>
         </is>
       </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1300,6 +1657,9 @@
           <t>0x25d3b337e17ad34dbc8cb97d1a724545d90478fa</t>
         </is>
       </c>
+      <c r="B124" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1307,6 +1667,9 @@
           <t>0x25e41ae4b247baaae702cdc909d50fd14b2db7ea</t>
         </is>
       </c>
+      <c r="B125" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1314,6 +1677,9 @@
           <t>0x2610a8d6602d7744174181348104dafc2ad94b28</t>
         </is>
       </c>
+      <c r="B126" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1321,6 +1687,9 @@
           <t>0x26436e73fdd02adde8ae7ab61fa660d6f7926e6f</t>
         </is>
       </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1328,6 +1697,9 @@
           <t>0x264979ffd35d608e69b69681f4bbcba9877e6c4a</t>
         </is>
       </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1335,6 +1707,9 @@
           <t>0x2672880d7be2b687b3a7f874fc4bf2eab7ab7074</t>
         </is>
       </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1342,6 +1717,9 @@
           <t>0x26f8d2330e06359dfd56a7227159f9fbcb1cbb25</t>
         </is>
       </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1349,6 +1727,9 @@
           <t>0x2859021ee7f2cb10162e67f33af2d22764b31aff</t>
         </is>
       </c>
+      <c r="B131" t="n">
+        <v>36906</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1356,6 +1737,9 @@
           <t>0x28e0d54349c00607505aadc713147140fb60ea12</t>
         </is>
       </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1363,6 +1747,9 @@
           <t>0x297fbad9810ab3d52abc4f1720bc24cac8b22c56</t>
         </is>
       </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1370,6 +1757,9 @@
           <t>0x299988b454204bfb309c12c5b7ef12c19d8fb19c</t>
         </is>
       </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1377,6 +1767,9 @@
           <t>0x2a2b359eb02655296d3a6e7eaf311900d3089f4e</t>
         </is>
       </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1384,6 +1777,9 @@
           <t>0x2a77bf0239c625a0319e21607d6e9093a38b6eed</t>
         </is>
       </c>
+      <c r="B136" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1391,6 +1787,9 @@
           <t>0x2a8c1742603cfa9ab2b300b6f0ffc46f49d35f32</t>
         </is>
       </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1398,6 +1797,9 @@
           <t>0x2b34ebda72bade6e6e91883ca67eb23484b045fb</t>
         </is>
       </c>
+      <c r="B138" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1405,6 +1807,9 @@
           <t>0x2b500267335f75d456f1ddd651e638159b516789</t>
         </is>
       </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1412,6 +1817,9 @@
           <t>0x2c9eb11db6b0dcb18fe8644003ee53f6b4588341</t>
         </is>
       </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1419,6 +1827,9 @@
           <t>0x2cbc88071f7c0eff084332b8acaa01f1f33eba50</t>
         </is>
       </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1426,6 +1837,9 @@
           <t>0x2ce1cb7f7b8aa04dc78cf1435192106bc4c394bf</t>
         </is>
       </c>
+      <c r="B142" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1433,6 +1847,9 @@
           <t>0x2cf3a4af0c34c4f12f4bc391bd123d13eeefd7fc</t>
         </is>
       </c>
+      <c r="B143" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1440,6 +1857,9 @@
           <t>0x2d04a81798ec74de48e09e3fd43ca41757d33e6a</t>
         </is>
       </c>
+      <c r="B144" t="n">
+        <v>534</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1447,6 +1867,9 @@
           <t>0x2d05359a51ca13c4ac5f4437585afaf5bf2050f9</t>
         </is>
       </c>
+      <c r="B145" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1454,6 +1877,9 @@
           <t>0x2d0e6999227174a0e2852e566dbc75b3a98b46c9</t>
         </is>
       </c>
+      <c r="B146" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1461,6 +1887,9 @@
           <t>0x2d5ffc14abcc10e11a354e29cb6ca343e33cd5bc</t>
         </is>
       </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1468,6 +1897,9 @@
           <t>0x2d92102bf50c111d59b93f7a10bafd13e770ed61</t>
         </is>
       </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1475,6 +1907,9 @@
           <t>0x2ddbeb99682ea724b66a97a58164213070c84560</t>
         </is>
       </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -1482,6 +1917,9 @@
           <t>0x2df5c5eb37fba9b386cf0b39e6b209687ca67559</t>
         </is>
       </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1489,6 +1927,9 @@
           <t>0x2df8286c9396f52e17dfee75d2e41e52609cf897</t>
         </is>
       </c>
+      <c r="B151" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1496,6 +1937,9 @@
           <t>0x2e919b36e8865f7b0e76691150d0bbc93846798c</t>
         </is>
       </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -1503,6 +1947,9 @@
           <t>0x2f2f25ee6a102272a484fa85388f0206ec7b0668</t>
         </is>
       </c>
+      <c r="B153" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1510,6 +1957,9 @@
           <t>0x2f30ff3428d62748a1d993f2cc6c9b55df40b4d7</t>
         </is>
       </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -1517,6 +1967,9 @@
           <t>0x2f3abc0a1cf1d7d0487fd220aa3283a63982ba60</t>
         </is>
       </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1524,6 +1977,9 @@
           <t>0x2f4bdafb22bd92aa7b7552d270376de8edccbc1e</t>
         </is>
       </c>
+      <c r="B156" t="n">
+        <v>3941</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -1531,6 +1987,9 @@
           <t>0x2f57384ea701c9d84d6ba0b6d00eecb4ae9fb0f5</t>
         </is>
       </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -1538,6 +1997,9 @@
           <t>0x2f58b31ecad8f1a60375a0c9968556283e6ce41a</t>
         </is>
       </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -1545,6 +2007,9 @@
           <t>0x2fa8174ec68f1b7dad8717d1f6876985f9834b59</t>
         </is>
       </c>
+      <c r="B159" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -1552,6 +2017,9 @@
           <t>0x2fb66959dfb573eee9268a8532a631874302772d</t>
         </is>
       </c>
+      <c r="B160" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -1559,6 +2027,9 @@
           <t>0x300cff0f78f58c8b6d395ca0ebe8604137884ce5</t>
         </is>
       </c>
+      <c r="B161" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1566,6 +2037,9 @@
           <t>0x300fc708cf85af94337acf3a752af2dc18327bcb</t>
         </is>
       </c>
+      <c r="B162" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -1573,6 +2047,9 @@
           <t>0x301a0501c08e347b062b3c928fd4d0155f367855</t>
         </is>
       </c>
+      <c r="B163" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -1580,6 +2057,9 @@
           <t>0x301dcb06f8928b37cf623d930206464f948ab5fc</t>
         </is>
       </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -1587,6 +2067,9 @@
           <t>0x30a632c76193c4829a1129c0a80990bdafe4b5eb</t>
         </is>
       </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -1594,6 +2077,9 @@
           <t>0x30e055f7c16b753dbf77b57f38782c11a9f1c653</t>
         </is>
       </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -1601,6 +2087,9 @@
           <t>0x3127e409438c651f378881d1df6e4972d6f29150</t>
         </is>
       </c>
+      <c r="B167" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -1608,6 +2097,9 @@
           <t>0x31710812a91c9cc695750a8d47fad1bb1d3a8f7d</t>
         </is>
       </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -1615,6 +2107,9 @@
           <t>0x31a25ef49039c5b3f7e18f8984137630aed54dfd</t>
         </is>
       </c>
+      <c r="B169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -1622,6 +2117,9 @@
           <t>0x31ac1331eed69beefb33aa992989605beac875d2</t>
         </is>
       </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -1629,6 +2127,9 @@
           <t>0x31c44756a907a6585210c324cd4823f980aa7702</t>
         </is>
       </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -1636,6 +2137,9 @@
           <t>0x32293366f73b94a9c2c054e2fbeff2658119ad2e</t>
         </is>
       </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -1643,6 +2147,9 @@
           <t>0x32680c305b2e753f0c9c8dfa6e36ba36c68e0801</t>
         </is>
       </c>
+      <c r="B173" t="n">
+        <v>517</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -1650,6 +2157,9 @@
           <t>0x32f14d71499fc2c1482eb275ec83ce5fb1d6c7ec</t>
         </is>
       </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -1657,6 +2167,9 @@
           <t>0x33540976411534a8d96c715a4ff7f4392d2e52d1</t>
         </is>
       </c>
+      <c r="B175" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -1664,6 +2177,9 @@
           <t>0x33f00114d5aca3dee03189d4ed9d4f886dad84b0</t>
         </is>
       </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -1671,6 +2187,9 @@
           <t>0x344bd3872f67d37757b48155ba4666e780fc47b5</t>
         </is>
       </c>
+      <c r="B177" t="n">
+        <v>4571</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -1678,6 +2197,9 @@
           <t>0x348bf1a3c3322cf7949fe7ac08f0ac8caaf4741a</t>
         </is>
       </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1685,6 +2207,9 @@
           <t>0x3491bd2c385849353f231688bffada9d1e005a8a</t>
         </is>
       </c>
+      <c r="B179" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -1692,6 +2217,9 @@
           <t>0x34afa7ff9a8eb4d8e61145ca81e2d0dab7b03662</t>
         </is>
       </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -1699,6 +2227,9 @@
           <t>0x3512594d19870dabac2e033f15fcc6d9abd606ba</t>
         </is>
       </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -1706,6 +2237,9 @@
           <t>0x352f448408b612bbac57d81c785f839e0c386698</t>
         </is>
       </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -1713,6 +2247,9 @@
           <t>0x357f07ac89ee6329a70ca837d6bfc16b0275015f</t>
         </is>
       </c>
+      <c r="B183" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -1720,6 +2257,9 @@
           <t>0x35d4acbc4d328fa40d548084d909fecb1c99aaa1</t>
         </is>
       </c>
+      <c r="B184" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1727,6 +2267,9 @@
           <t>0x3772f9716cf6d7a09ede3587738aa2af5577483a</t>
         </is>
       </c>
+      <c r="B185" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -1734,6 +2277,9 @@
           <t>0x37eb3cb268a0dd1bc2c383296fe34f58c5b5db8b</t>
         </is>
       </c>
+      <c r="B186" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1741,6 +2287,9 @@
           <t>0x3846f81d9b0f546aaab3d6180402b00d3cb5d567</t>
         </is>
       </c>
+      <c r="B187" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1748,6 +2297,9 @@
           <t>0x384e762dad922b22a0d06f4d1229582473d2dee6</t>
         </is>
       </c>
+      <c r="B188" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -1755,6 +2307,9 @@
           <t>0x388f984fb8efd7ad96bd54792e18ee560879e579</t>
         </is>
       </c>
+      <c r="B189" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1762,6 +2317,9 @@
           <t>0x389ee987eecab651c20fbc97604c2f49a1249464</t>
         </is>
       </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1769,6 +2327,9 @@
           <t>0x38acc6c57f3fea1d9dbffb395f3f7c3143f0d749</t>
         </is>
       </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1776,6 +2337,9 @@
           <t>0x38c83b225eb17d44f33f8bb3bdc23d86733838db</t>
         </is>
       </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -1783,6 +2347,9 @@
           <t>0x38ca499bb3b405fcc4a9cfc9d1c119f0bcf05e6f</t>
         </is>
       </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1790,6 +2357,9 @@
           <t>0x38e2cfa5627b2fef3d0556638b13ea6bf6a5e34d</t>
         </is>
       </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -1797,6 +2367,9 @@
           <t>0x3916eafb75abe1f887e2974d143f1cf9bbb4a93d</t>
         </is>
       </c>
+      <c r="B195" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -1804,6 +2377,9 @@
           <t>0x398193d0f35a132b9d8f7252c29d3c269c6f9965</t>
         </is>
       </c>
+      <c r="B196" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -1811,6 +2387,9 @@
           <t>0x3aa3238867fed3fe86e6c30a242049b4a4caa19c</t>
         </is>
       </c>
+      <c r="B197" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -1818,6 +2397,9 @@
           <t>0x3ac0d29eaf16eb423e07387274a05a1e16a8472b</t>
         </is>
       </c>
+      <c r="B198" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -1825,6 +2407,9 @@
           <t>0x3b8682acc08584d2cbdda4431b891d0323c24b56</t>
         </is>
       </c>
+      <c r="B199" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -1832,6 +2417,9 @@
           <t>0x3b96990a8ef293cdd37c8e1ad3d210a0166f40e1</t>
         </is>
       </c>
+      <c r="B200" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -1839,6 +2427,9 @@
           <t>0x3bcaf56923335062e8f272d011efd2e40fa42147</t>
         </is>
       </c>
+      <c r="B201" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -1846,6 +2437,9 @@
           <t>0x3c311b5e2d475243097ae008b5cc52dd49c095ee</t>
         </is>
       </c>
+      <c r="B202" t="n">
+        <v>10033</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -1853,6 +2447,9 @@
           <t>0x3c563651318b6b2cf555207a1e611bb577fff446</t>
         </is>
       </c>
+      <c r="B203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -1860,6 +2457,9 @@
           <t>0x3c7feb0dc32be219ef51b7fd38b56d62bb864d41</t>
         </is>
       </c>
+      <c r="B204" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -1867,6 +2467,9 @@
           <t>0x3c840e8a7b4e28c12071fc92108b2d8a266d2c9b</t>
         </is>
       </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -1874,6 +2477,9 @@
           <t>0x3c8d169b305ab9c0e46f6bb1f07bc40abb1c8bf0</t>
         </is>
       </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -1881,6 +2487,9 @@
           <t>0x3cf4b3ec129d2e44514b90e07f13acf8fe22e217</t>
         </is>
       </c>
+      <c r="B207" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -1888,6 +2497,9 @@
           <t>0x3daa1574776e5e4057a130c50b021ab70d42af40</t>
         </is>
       </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -1895,6 +2507,9 @@
           <t>0x3dd88933a5fe25b32f881da51eaef8bffd3ab2d8</t>
         </is>
       </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -1902,6 +2517,9 @@
           <t>0x3e7840b88396acd80bac66021e1354064461a498</t>
         </is>
       </c>
+      <c r="B210" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -1909,6 +2527,9 @@
           <t>0x3e84512f277a5081b9209831c51bce665035d9db</t>
         </is>
       </c>
+      <c r="B211" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -1916,6 +2537,9 @@
           <t>0x3f167627de4d2108d2f30407af5890f5154313a7</t>
         </is>
       </c>
+      <c r="B212" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -1923,6 +2547,9 @@
           <t>0x3f3f0b899f474b04d471253163ee93e7cab2d964</t>
         </is>
       </c>
+      <c r="B213" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -1930,6 +2557,9 @@
           <t>0x3f53eb87b841323fecc4deceebceaca58f4dfc72</t>
         </is>
       </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -1937,6 +2567,9 @@
           <t>0x3fa625d43dcb44f388ccb922a611e3884dbc0825</t>
         </is>
       </c>
+      <c r="B215" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -1944,6 +2577,9 @@
           <t>0x40360631db85eddab268dd1b6ffea4377733e125</t>
         </is>
       </c>
+      <c r="B216" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -1951,6 +2587,9 @@
           <t>0x4129c45b929cdb787deaae3d0e27ba5b5cd3e3ca</t>
         </is>
       </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -1958,6 +2597,9 @@
           <t>0x415f306a0628d35183f42d0607cd03fcb71d1e1f</t>
         </is>
       </c>
+      <c r="B218" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -1965,6 +2607,9 @@
           <t>0x4295c72c58fdcd02b626c6453c6c29e217077211</t>
         </is>
       </c>
+      <c r="B219" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -1972,6 +2617,9 @@
           <t>0x42db5bfe8828f12f164586af8a992b3a7b038164</t>
         </is>
       </c>
+      <c r="B220" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -1979,6 +2627,9 @@
           <t>0x43d2b8827218752ffe5a35cefc3bbe50ca79af47</t>
         </is>
       </c>
+      <c r="B221" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -1986,6 +2637,9 @@
           <t>0x440f29b408d31e951b7e0d67a402a2ce74785099</t>
         </is>
       </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -1993,6 +2647,9 @@
           <t>0x44bc5727c2c592038a944ca2696b5c958650c877</t>
         </is>
       </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -2000,6 +2657,9 @@
           <t>0x44e11213f34ca222a92bccea631a976640bb5e95</t>
         </is>
       </c>
+      <c r="B224" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -2007,6 +2667,9 @@
           <t>0x44e7786a9dd083ad147cec72cb3a5ef6b7b3f91f</t>
         </is>
       </c>
+      <c r="B225" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -2014,6 +2677,9 @@
           <t>0x45c58bbd535b8661110ef5296e6987573d0c8276</t>
         </is>
       </c>
+      <c r="B226" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -2021,6 +2687,9 @@
           <t>0x468b840b64e2de2849cec1321fe8131070029770</t>
         </is>
       </c>
+      <c r="B227" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -2028,6 +2697,9 @@
           <t>0x46b6434711a2dfab29a7069844968752db387ddc</t>
         </is>
       </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -2035,6 +2707,9 @@
           <t>0x47000de9ac92e29d4fee617732ffeedc306bd10e</t>
         </is>
       </c>
+      <c r="B229" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -2042,6 +2717,9 @@
           <t>0x48662880680cbc66fb4c6d6d0e29865b12085ea2</t>
         </is>
       </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -2049,6 +2727,9 @@
           <t>0x48ee772b8c8927d8d32afc8961fbc177fb723637</t>
         </is>
       </c>
+      <c r="B231" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -2056,6 +2737,9 @@
           <t>0x49d2374241a0a4b407a71d359a753fc630c5d8d4</t>
         </is>
       </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -2063,6 +2747,9 @@
           <t>0x4a395426c2b38cf2dca8fb4d10749066fd1c2fce</t>
         </is>
       </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -2070,6 +2757,9 @@
           <t>0x4a5fc826441a16b86aa850b3ddc4b1bc02f21b6c</t>
         </is>
       </c>
+      <c r="B234" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -2077,6 +2767,9 @@
           <t>0x4a8d3a662e0fd6a8bd39ed0f91e4c1b729c81a38</t>
         </is>
       </c>
+      <c r="B235" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -2084,6 +2777,9 @@
           <t>0x4a9d54e391812c54da8bc57ddfa32dfe13ac3d0f</t>
         </is>
       </c>
+      <c r="B236" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -2091,6 +2787,9 @@
           <t>0x4aa19497b46cc408902778bd36c4fab48b09fac8</t>
         </is>
       </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -2098,6 +2797,9 @@
           <t>0x4b177c969e1e4f5ea6a01e7707e77d0b9d289c4c</t>
         </is>
       </c>
+      <c r="B238" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -2105,6 +2807,9 @@
           <t>0x4b2ca6b25e063d8dce5bd862f99669a67ec44c9d</t>
         </is>
       </c>
+      <c r="B239" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -2112,6 +2817,9 @@
           <t>0x4c1ef44b89fdadaea76a6a8004a1b7a5b6a7f603</t>
         </is>
       </c>
+      <c r="B240" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -2119,6 +2827,9 @@
           <t>0x4c524b1e9d947c79be92e20c82e7281d783657dd</t>
         </is>
       </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -2126,6 +2837,9 @@
           <t>0x4c60e311d8fba04e313f7e7b3dec61b3028726d1</t>
         </is>
       </c>
+      <c r="B242" t="n">
+        <v>842</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -2133,6 +2847,9 @@
           <t>0x4ca65f54f923be2fb3efc3a7758e88a6f910806e</t>
         </is>
       </c>
+      <c r="B243" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -2140,6 +2857,9 @@
           <t>0x4cf2bfe70afc0ccef473c00abdd288a00d8c80fb</t>
         </is>
       </c>
+      <c r="B244" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -2147,6 +2867,9 @@
           <t>0x4d32df060c8cb4aa1851830110a0a4dc96692371</t>
         </is>
       </c>
+      <c r="B245" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -2154,6 +2877,9 @@
           <t>0x4dcd68fbaa08976950a3b447194604c6288510eb</t>
         </is>
       </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -2161,6 +2887,9 @@
           <t>0x4df6de08d11f11ebad5d9e136b768849426fb8a7</t>
         </is>
       </c>
+      <c r="B247" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -2168,6 +2897,9 @@
           <t>0x4ed184d6a9e449ecb984cb1fea7ed40db59439fd</t>
         </is>
       </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -2175,6 +2907,9 @@
           <t>0x4f4b9d39ee1bc63dfdc4304527fe14b42d6dc184</t>
         </is>
       </c>
+      <c r="B249" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -2182,6 +2917,9 @@
           <t>0x4fdc2078d8bc92e1ee594759d7362f94b60b1a3d</t>
         </is>
       </c>
+      <c r="B250" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -2189,6 +2927,9 @@
           <t>0x50377c3314581a639f00bd5ba42367a6b65bced7</t>
         </is>
       </c>
+      <c r="B251" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -2196,6 +2937,9 @@
           <t>0x5064ef946f91e8d94f845cf9a403acb1b9739eb2</t>
         </is>
       </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -2203,6 +2947,9 @@
           <t>0x50bb21befa6c04f0c81a44edaea5f11d069791f8</t>
         </is>
       </c>
+      <c r="B253" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -2210,6 +2957,9 @@
           <t>0x50ec4b1f8434020e2d896c9cfb8a20d63af6136d</t>
         </is>
       </c>
+      <c r="B254" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -2217,6 +2967,9 @@
           <t>0x516ed389ca876239a11d49050bb51577500f6781</t>
         </is>
       </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -2224,6 +2977,9 @@
           <t>0x5170a14aa36245a8a9698f23444045bdc4522e0a</t>
         </is>
       </c>
+      <c r="B256" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -2231,6 +2987,9 @@
           <t>0x51ae2f91619246ad3a20f4e76f3323a836bde6a5</t>
         </is>
       </c>
+      <c r="B257" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -2238,6 +2997,9 @@
           <t>0x5209647ee5d6247daddae470ccc6a282c642f6d8</t>
         </is>
       </c>
+      <c r="B258" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -2245,6 +3007,9 @@
           <t>0x521ed218348577fa2915b9454b72712024d350d2</t>
         </is>
       </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -2252,6 +3017,9 @@
           <t>0x5224724d42a629d997543ddd99f9d961e3ae923f</t>
         </is>
       </c>
+      <c r="B260" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -2259,6 +3027,9 @@
           <t>0x523630976eb6147621b5c31c781ebe2ec2a806e0</t>
         </is>
       </c>
+      <c r="B261" t="n">
+        <v>7067</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -2266,6 +3037,9 @@
           <t>0x52903256dd18d85c2dc4a6c999907c9793ea61e3</t>
         </is>
       </c>
+      <c r="B262" t="n">
+        <v>5644</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -2273,6 +3047,9 @@
           <t>0x544a1abc3c932847fd1049ee55e0d0e1eeb3dc80</t>
         </is>
       </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -2280,6 +3057,9 @@
           <t>0x545123c9b719cc37d098168742ca21748adc0060</t>
         </is>
       </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -2287,6 +3067,9 @@
           <t>0x54e20fea922df728daf9701c704e52018c70edf9</t>
         </is>
       </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -2294,6 +3077,9 @@
           <t>0x555d371d8364cbf4deaac794133ed7ec76d22413</t>
         </is>
       </c>
+      <c r="B266" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -2301,6 +3087,9 @@
           <t>0x559cc6564ef51bd1ad9fbe752c9455cb6fb7feb1</t>
         </is>
       </c>
+      <c r="B267" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -2308,6 +3097,9 @@
           <t>0x55f854a1e2e67fef6754fdbc985b04423d20fbf1</t>
         </is>
       </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -2315,6 +3107,9 @@
           <t>0x561dd423ebcaa801e04746fb411ef7404a389961</t>
         </is>
       </c>
+      <c r="B269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -2322,6 +3117,9 @@
           <t>0x56649c2d05b2cf56b1297fea332ba4a049748520</t>
         </is>
       </c>
+      <c r="B270" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -2329,6 +3127,9 @@
           <t>0x56f4c053eb6fe1c36775a14bdd05c683e4fdede3</t>
         </is>
       </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -2336,6 +3137,9 @@
           <t>0x5745b21f6365b379451f2f327274812d7a5d3d0d</t>
         </is>
       </c>
+      <c r="B272" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -2343,6 +3147,9 @@
           <t>0x579afc9d2aab2fd0cbf55eddc35ce4667725f88e</t>
         </is>
       </c>
+      <c r="B273" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -2350,6 +3157,9 @@
           <t>0x5818ef6b37c329040f331f772fe86619ce56026b</t>
         </is>
       </c>
+      <c r="B274" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -2357,6 +3167,9 @@
           <t>0x587a7c22f24f4f00e3a2b1c984ef290ce7d132d9</t>
         </is>
       </c>
+      <c r="B275" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -2364,6 +3177,9 @@
           <t>0x58bf4d7869517fb67fdc4fac0897e7829d19f47e</t>
         </is>
       </c>
+      <c r="B276" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -2371,6 +3187,9 @@
           <t>0x58dfcfbd7955a67287eb0e4ba38a233c6f0f8012</t>
         </is>
       </c>
+      <c r="B277" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -2378,6 +3197,9 @@
           <t>0x58ea969c48d5d12dad1210d8482af7f69d53f6fe</t>
         </is>
       </c>
+      <c r="B278" t="n">
+        <v>14183</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -2385,6 +3207,9 @@
           <t>0x5a13fb126ff58a66e09b79de8777d3f62d4e7161</t>
         </is>
       </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -2392,6 +3217,9 @@
           <t>0x5a2a454675c1b659caa58b5675ee759b992b84b1</t>
         </is>
       </c>
+      <c r="B280" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -2399,6 +3227,9 @@
           <t>0x5a2f443b32ab76d3b6b988edd2a822018b000f88</t>
         </is>
       </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -2406,6 +3237,9 @@
           <t>0x5a4ade4f3e934a0885f42884f7077261c3f4f66f</t>
         </is>
       </c>
+      <c r="B282" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -2413,6 +3247,9 @@
           <t>0x5b6f03513fef300f8b3d804ea4040abdee1f3aa2</t>
         </is>
       </c>
+      <c r="B283" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -2420,6 +3257,9 @@
           <t>0x5b72cae52d7d4cda632595574fcefdea3ae37143</t>
         </is>
       </c>
+      <c r="B284" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -2427,6 +3267,9 @@
           <t>0x5c545ca7f9d34857664fdce6adc22edcf1d5061f</t>
         </is>
       </c>
+      <c r="B285" t="n">
+        <v>7047</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -2434,6 +3277,9 @@
           <t>0x5c8546a7b86ba30202c09a84f5a72644a2a4f7ba</t>
         </is>
       </c>
+      <c r="B286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -2441,6 +3287,9 @@
           <t>0x5c8d1812c67fa3ccea6b27e2bbd0b7bdd08d4315</t>
         </is>
       </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -2448,6 +3297,9 @@
           <t>0x5cee173ee3a9568a4d66d882d78fdf5724251e82</t>
         </is>
       </c>
+      <c r="B288" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -2455,6 +3307,9 @@
           <t>0x5d26239257e6433889f00bb46294c552b4d75ec9</t>
         </is>
       </c>
+      <c r="B289" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -2462,6 +3317,9 @@
           <t>0x5d335fb05244b0b8c612c20f5d852264c6ed649f</t>
         </is>
       </c>
+      <c r="B290" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -2469,6 +3327,9 @@
           <t>0x5d357c787c66ac1b09edc55e37abb28f3cc5b928</t>
         </is>
       </c>
+      <c r="B291" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -2476,6 +3337,9 @@
           <t>0x5d39fcebe89ab0397947881539fd6dc7d99c6a87</t>
         </is>
       </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -2483,6 +3347,9 @@
           <t>0x5d4172156a9b54f6805c41f7487aa4fa89eb33da</t>
         </is>
       </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -2490,6 +3357,9 @@
           <t>0x5dec8bed5b8a4e30c64d7bfc5a554fd7a7223101</t>
         </is>
       </c>
+      <c r="B294" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -2497,6 +3367,9 @@
           <t>0x5e6ed16d845a46b9f863a256e7a3194f2a9e8b5c</t>
         </is>
       </c>
+      <c r="B295" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -2504,6 +3377,9 @@
           <t>0x5f15d2d4c60e229586a5bdfe2eec1981f92845c1</t>
         </is>
       </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -2511,6 +3387,9 @@
           <t>0x5f939a81b13b5490a66a3b58fde465ff2ab8684e</t>
         </is>
       </c>
+      <c r="B297" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -2518,6 +3397,9 @@
           <t>0x5fc01e928ca7a4aeafae67e6565887c4da7feb4f</t>
         </is>
       </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -2525,6 +3407,9 @@
           <t>0x6011eaa54b5cf8671ae02f6f51c3fff7bc266cdb</t>
         </is>
       </c>
+      <c r="B299" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -2532,6 +3417,9 @@
           <t>0x6027db275318fe43ee284e5d7dc1f6c4f72cf28a</t>
         </is>
       </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -2539,6 +3427,9 @@
           <t>0x60778cb37b76e1ccd8e05e25cf712ba5bda3217a</t>
         </is>
       </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -2546,6 +3437,9 @@
           <t>0x60f52581489e879df02d86f956bd8c634f6f4db9</t>
         </is>
       </c>
+      <c r="B302" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -2553,6 +3447,9 @@
           <t>0x61cca6c941c6629df67439694889c2d1877a17eb</t>
         </is>
       </c>
+      <c r="B303" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -2560,6 +3457,9 @@
           <t>0x6285b47726e619d04491f1607a72065d6bbbd667</t>
         </is>
       </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -2567,6 +3467,9 @@
           <t>0x62b46ad2e8a203fe8c04b6f97f5006e1a53e9b15</t>
         </is>
       </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -2574,6 +3477,9 @@
           <t>0x62d34a9815d656c8c96f28aaaa9d3344e1e43596</t>
         </is>
       </c>
+      <c r="B306" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -2581,6 +3487,9 @@
           <t>0x630b6ce3471ea19d3e31ddc07160d79ef96957a3</t>
         </is>
       </c>
+      <c r="B307" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -2588,6 +3497,9 @@
           <t>0x63fed9eb6f80f491bddbc853059414c2f8eb6028</t>
         </is>
       </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -2595,6 +3507,9 @@
           <t>0x645a90d222d46139d72477f1d41a3c970a2880f4</t>
         </is>
       </c>
+      <c r="B309" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -2602,6 +3517,9 @@
           <t>0x64ba926175bc69ba757ef53a6d5ef616889c9999</t>
         </is>
       </c>
+      <c r="B310" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -2609,6 +3527,9 @@
           <t>0x64d5e7be2e92d4436ba9c4a630491cb268764103</t>
         </is>
       </c>
+      <c r="B311" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -2616,6 +3537,9 @@
           <t>0x65c484a961caedcf086b85a55cf7d7c1153221ba</t>
         </is>
       </c>
+      <c r="B312" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -2623,6 +3547,9 @@
           <t>0x65c74fc2dd37788c8ecbafbc8518f5d794152ce4</t>
         </is>
       </c>
+      <c r="B313" t="n">
+        <v>4120</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -2630,6 +3557,9 @@
           <t>0x663f07872b99053ae6eee5d5550495268d738fec</t>
         </is>
       </c>
+      <c r="B314" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -2637,6 +3567,9 @@
           <t>0x66e9aeedc17558cfc97b6734600b7a835f8e7ceb</t>
         </is>
       </c>
+      <c r="B315" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -2644,6 +3577,9 @@
           <t>0x670343443aace59a5739da1c8330bb9fa7836d9d</t>
         </is>
       </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -2651,6 +3587,9 @@
           <t>0x675283432d53531e11ed459c51fb508b7c9585fb</t>
         </is>
       </c>
+      <c r="B317" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -2658,6 +3597,9 @@
           <t>0x6760a96e5c3c84227565aa51727226a057977bf9</t>
         </is>
       </c>
+      <c r="B318" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -2665,6 +3607,9 @@
           <t>0x678042580304a7f32dd03b027d90083818dc16a1</t>
         </is>
       </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -2672,6 +3617,9 @@
           <t>0x67b05fa2ababcdb3e1a1635868f58f9652bd3298</t>
         </is>
       </c>
+      <c r="B320" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -2679,6 +3627,9 @@
           <t>0x67fe84a2f69ad442b3940da39cc31b185b6c4ec6</t>
         </is>
       </c>
+      <c r="B321" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -2686,6 +3637,9 @@
           <t>0x6805661283c64a79323d187f9d6b2ca4dae59fd0</t>
         </is>
       </c>
+      <c r="B322" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -2693,6 +3647,9 @@
           <t>0x68662fae9167d1e3eb6fd0ed7c416826faa20b0c</t>
         </is>
       </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -2700,6 +3657,9 @@
           <t>0x690e35532614c278eb106332bae62e1f09098851</t>
         </is>
       </c>
+      <c r="B324" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -2707,6 +3667,9 @@
           <t>0x6959396dc62b52c64e9a99c8227322d2305ae89e</t>
         </is>
       </c>
+      <c r="B325" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -2714,6 +3677,9 @@
           <t>0x69a8d2808c0fbf3ccf7c8dcb22773491e724ab4a</t>
         </is>
       </c>
+      <c r="B326" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -2721,6 +3687,9 @@
           <t>0x6a8d7d37870cfc7abf7a316412bab5ed9c3aba34</t>
         </is>
       </c>
+      <c r="B327" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -2728,6 +3697,9 @@
           <t>0x6ac07b7c4601b5ce11de8dfe6335b871c7c4dd4d</t>
         </is>
       </c>
+      <c r="B328" t="n">
+        <v>4421</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -2735,6 +3707,9 @@
           <t>0x6b609d9095d069c805650234ab67595b3a6ab934</t>
         </is>
       </c>
+      <c r="B329" t="n">
+        <v>3681</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -2742,6 +3717,9 @@
           <t>0x6b9d6a0bc491f2a6f57fd1eff9acbbaf8d21417b</t>
         </is>
       </c>
+      <c r="B330" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -2749,6 +3727,9 @@
           <t>0x6d66439c9cc75b69f9a40e82f34445081b8e929a</t>
         </is>
       </c>
+      <c r="B331" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -2756,6 +3737,9 @@
           <t>0x6da9c5eacf80bf864e34c0efb64d07dce8bb9593</t>
         </is>
       </c>
+      <c r="B332" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -2763,6 +3747,9 @@
           <t>0x6e5b7f4e908b6e55c8f8bd699487825666d3c1dc</t>
         </is>
       </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -2770,6 +3757,9 @@
           <t>0x6ec75c4eddd6838049478ac386dacd74d53c22cd</t>
         </is>
       </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -2777,6 +3767,9 @@
           <t>0x6fc1ee575e9023aea1c45b4dfc9acf603ea9f63f</t>
         </is>
       </c>
+      <c r="B335" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -2784,6 +3777,9 @@
           <t>0x705f04a4f1e7a1e23caea390b8903bd43d96e18e</t>
         </is>
       </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -2791,6 +3787,9 @@
           <t>0x70612c87de3628ccb41428a0a3229161ff72262a</t>
         </is>
       </c>
+      <c r="B337" t="n">
+        <v>3906</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -2798,6 +3797,9 @@
           <t>0x70b920cecc28effe8fe451c0beecc12f234bf9d3</t>
         </is>
       </c>
+      <c r="B338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -2805,6 +3807,9 @@
           <t>0x70e29c7124585a20ede4e78b615d3a3b2b4dad5c</t>
         </is>
       </c>
+      <c r="B339" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -2812,6 +3817,9 @@
           <t>0x70eb150c7c9e2ac62588a4f4ea4c2b9fb4bd05d3</t>
         </is>
       </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -2819,6 +3827,9 @@
           <t>0x71065f5b5891c27ae5e48faa7000a7c1c3df7ff3</t>
         </is>
       </c>
+      <c r="B341" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -2826,6 +3837,9 @@
           <t>0x710b592bf7eaa59e8046c83519f092def346b6df</t>
         </is>
       </c>
+      <c r="B342" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -2833,6 +3847,9 @@
           <t>0x7120c2a369d8a07579442b25042305362571ddd4</t>
         </is>
       </c>
+      <c r="B343" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -2840,6 +3857,9 @@
           <t>0x713c1a2bc93f9988ee5e607860ac111a808a8f33</t>
         </is>
       </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -2847,6 +3867,9 @@
           <t>0x71b7e3a3ff05224c1e38031b3d887657db565a20</t>
         </is>
       </c>
+      <c r="B345" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -2854,6 +3877,9 @@
           <t>0x722b035cdaf0daf521ead7bc3496029a280e6249</t>
         </is>
       </c>
+      <c r="B346" t="n">
+        <v>11818</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -2861,6 +3887,9 @@
           <t>0x726605ea9987f54e62e16cbcec4926a1a493a84e</t>
         </is>
       </c>
+      <c r="B347" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -2868,6 +3897,9 @@
           <t>0x726ba175035aa622c3c12b74efc577bb1081593a</t>
         </is>
       </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -2875,6 +3907,9 @@
           <t>0x7328b31825ac9b46dff6bfc092391156cfb6e1f2</t>
         </is>
       </c>
+      <c r="B349" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -2882,6 +3917,9 @@
           <t>0x736fcb9221bc56a76116981d010d17a320d7ca73</t>
         </is>
       </c>
+      <c r="B350" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -2889,6 +3927,9 @@
           <t>0x73b958200ca61991556324cdf2f315ce2ae08698</t>
         </is>
       </c>
+      <c r="B351" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -2896,6 +3937,9 @@
           <t>0x73f2fd0df4bf82a1137c03e0d4656e5c35b03177</t>
         </is>
       </c>
+      <c r="B352" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -2903,6 +3947,9 @@
           <t>0x741f1923974464efd0aa70e77800ba5d9ed18902</t>
         </is>
       </c>
+      <c r="B353" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -2910,6 +3957,9 @@
           <t>0x74a30d0ca07771fbd450ef4ded357e2e688ee59f</t>
         </is>
       </c>
+      <c r="B354" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -2917,6 +3967,9 @@
           <t>0x74ef774c26761ca9c543fbcd0a6060bbb52caaf0</t>
         </is>
       </c>
+      <c r="B355" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -2924,6 +3977,9 @@
           <t>0x75738fc16aef19ce08479ae9c7976498dd320be3</t>
         </is>
       </c>
+      <c r="B356" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -2931,6 +3987,9 @@
           <t>0x7585359453bf5d2f7c2fe74e4db4530403ab0c10</t>
         </is>
       </c>
+      <c r="B357" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -2938,6 +3997,9 @@
           <t>0x75e494f8a92ad1daa4fd6e78cbac33f84c2f25b9</t>
         </is>
       </c>
+      <c r="B358" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -2945,6 +4007,9 @@
           <t>0x7602ecd2f8ec584c23fc882f1ab572df828445a9</t>
         </is>
       </c>
+      <c r="B359" t="n">
+        <v>520</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -2952,6 +4017,9 @@
           <t>0x76650703bd3fc6501ccd90dd69bba977190e98d6</t>
         </is>
       </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -2959,6 +4027,9 @@
           <t>0x76a0238bd8db4ca6e17e9691e32a6626e202bfc0</t>
         </is>
       </c>
+      <c r="B361" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -2966,6 +4037,9 @@
           <t>0x76a6b003c39c1eb38b96aaaa1f551e4c6ad3de5c</t>
         </is>
       </c>
+      <c r="B362" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -2973,6 +4047,9 @@
           <t>0x777b8a88ab35d3bcc98bf485f5b5c6f83adcfe5e</t>
         </is>
       </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -2980,6 +4057,9 @@
           <t>0x77f54e6a0ed49e8ce5155468feaec29368b10465</t>
         </is>
       </c>
+      <c r="B364" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -2987,6 +4067,9 @@
           <t>0x781ff41238f6ed9974061b8ffd4059723f92f894</t>
         </is>
       </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -2994,6 +4077,9 @@
           <t>0x78b17cc10c4d34fbf6cb474731f7340e487a5db3</t>
         </is>
       </c>
+      <c r="B366" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -3001,6 +4087,9 @@
           <t>0x78c9e50652d9c9bc038151c39bfbee0fe2a1fe4b</t>
         </is>
       </c>
+      <c r="B367" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -3008,6 +4097,9 @@
           <t>0x7909d3c14e5fb93a508582d04d11093585ebc084</t>
         </is>
       </c>
+      <c r="B368" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -3015,6 +4107,9 @@
           <t>0x794765a50b1ede126f9d2dca9d66227af057ef25</t>
         </is>
       </c>
+      <c r="B369" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -3022,6 +4117,9 @@
           <t>0x7957eefc49db8e7c7a11ded53f4604aa6afc0b29</t>
         </is>
       </c>
+      <c r="B370" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -3029,6 +4127,9 @@
           <t>0x7958a487fbf8976370f0a93f1ebdab3801aad8cc</t>
         </is>
       </c>
+      <c r="B371" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -3036,6 +4137,9 @@
           <t>0x7a23687666b46cb674c2034e1bac94dcb5423dbd</t>
         </is>
       </c>
+      <c r="B372" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -3043,6 +4147,9 @@
           <t>0x7a70299f8ede75836d47e37b9af192fb58ea6c51</t>
         </is>
       </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -3050,6 +4157,9 @@
           <t>0x7ad549fda3923811d3b82cf776a3660ab12a32c2</t>
         </is>
       </c>
+      <c r="B374" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -3057,6 +4167,9 @@
           <t>0x7aef0c430a04d39beb4f56c434e828ef788db78c</t>
         </is>
       </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -3064,6 +4177,9 @@
           <t>0x7aef44e5e6930f8799559afb046ccd8692044f86</t>
         </is>
       </c>
+      <c r="B376" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -3071,6 +4187,9 @@
           <t>0x7b4700f2a2e0765aab00b082613b417cecd0f9f0</t>
         </is>
       </c>
+      <c r="B377" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -3078,6 +4197,9 @@
           <t>0x7bc51b19abe2cfb15d58f845dad027feab01bfa0</t>
         </is>
       </c>
+      <c r="B378" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -3085,6 +4207,9 @@
           <t>0x7bf5a0802a5eb74883806e60600290f53da339e1</t>
         </is>
       </c>
+      <c r="B379" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -3092,6 +4217,9 @@
           <t>0x7cfc4442dd96d6f85dd41d458a13957ba381e05a</t>
         </is>
       </c>
+      <c r="B380" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -3099,6 +4227,9 @@
           <t>0x7d1fc94095ad089c00428c3915f811936d043b54</t>
         </is>
       </c>
+      <c r="B381" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -3106,6 +4237,9 @@
           <t>0x7db19012b3d97f86c69bc275a717b006d8b2ebfe</t>
         </is>
       </c>
+      <c r="B382" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -3113,6 +4247,9 @@
           <t>0x7ec40b905a09f90bc4a692b19160fe6685b5ff47</t>
         </is>
       </c>
+      <c r="B383" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -3120,6 +4257,9 @@
           <t>0x7ed77f4dc8218db41789d75889394bcb752dd532</t>
         </is>
       </c>
+      <c r="B384" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -3127,6 +4267,9 @@
           <t>0x7ff386aeabfb72a4339d5a1b3bf1a8d982c12bdf</t>
         </is>
       </c>
+      <c r="B385" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -3134,6 +4277,9 @@
           <t>0x8027add04029e6bccd5efe2109cd2be7bd169ba8</t>
         </is>
       </c>
+      <c r="B386" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -3141,6 +4287,9 @@
           <t>0x803838b44a07b1948abb8373c1eabe3e0152b726</t>
         </is>
       </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -3148,6 +4297,9 @@
           <t>0x812a935527dac8c340ae875ecb7713fcf85127c6</t>
         </is>
       </c>
+      <c r="B388" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -3155,6 +4307,9 @@
           <t>0x8135efaa18a489fdd40d93471c7bcd28e7f1c0b8</t>
         </is>
       </c>
+      <c r="B389" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -3162,6 +4317,9 @@
           <t>0x8142f69a18cfd12f2ede55d1e26bcc1e9b3e463d</t>
         </is>
       </c>
+      <c r="B390" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -3169,6 +4327,9 @@
           <t>0x8154eb22ebedc56cb1c72add3d3704d6b5578155</t>
         </is>
       </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -3176,6 +4337,9 @@
           <t>0x8194df136b53dba129191e5460cd8c6745d150e9</t>
         </is>
       </c>
+      <c r="B392" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -3183,6 +4347,9 @@
           <t>0x81c54822e12581b23a2aa782f1d84b15670814c9</t>
         </is>
       </c>
+      <c r="B393" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -3190,6 +4357,9 @@
           <t>0x82103eabce34b0e814fb71d1b840371542edaa40</t>
         </is>
       </c>
+      <c r="B394" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -3197,6 +4367,9 @@
           <t>0x8233d77c35efe359517b32b02cbf76446002eadb</t>
         </is>
       </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -3204,6 +4377,9 @@
           <t>0x828381a9ac19e874c9345101a4c5a80ac5619a0b</t>
         </is>
       </c>
+      <c r="B396" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -3211,6 +4387,9 @@
           <t>0x82cf44be0768a3600c4bdea58607783a3a7c51ae</t>
         </is>
       </c>
+      <c r="B397" t="n">
+        <v>1436</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -3218,6 +4397,9 @@
           <t>0x837e2f52db5017316adee47aa171d56e2c8af2af</t>
         </is>
       </c>
+      <c r="B398" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -3225,6 +4407,9 @@
           <t>0x84b7d95165328d790a34cc5d7ecf528be55c65ed</t>
         </is>
       </c>
+      <c r="B399" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -3232,6 +4417,9 @@
           <t>0x855835fb53183ff996aad98d356209c83b7b684a</t>
         </is>
       </c>
+      <c r="B400" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -3239,6 +4427,9 @@
           <t>0x858c9eaf3ace37d2bedb4a1eb6b8805ffe801bba</t>
         </is>
       </c>
+      <c r="B401" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -3246,6 +4437,9 @@
           <t>0x85c548a176f86bcaad45e96a7758538ddaba3a65</t>
         </is>
       </c>
+      <c r="B402" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -3253,6 +4447,9 @@
           <t>0x85e7a45bfff55f8a57acb25095bf59724f748897</t>
         </is>
       </c>
+      <c r="B403" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -3260,6 +4457,9 @@
           <t>0x870ed69ed12430c6a3d4abdb30c7eeb1918c62b1</t>
         </is>
       </c>
+      <c r="B404" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -3267,6 +4467,9 @@
           <t>0x8776fdf897337ad36472d9d7520fb022d7a69732</t>
         </is>
       </c>
+      <c r="B405" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -3274,6 +4477,9 @@
           <t>0x87f31ab270ecf848663d64d3ab0998de2088a226</t>
         </is>
       </c>
+      <c r="B406" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -3281,6 +4487,9 @@
           <t>0x8877b35cacce0063a280c6448a3c35c2cdf94b58</t>
         </is>
       </c>
+      <c r="B407" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -3288,6 +4497,9 @@
           <t>0x88cc1fc6210fc920157a35b6fc3b8e8f97c71e45</t>
         </is>
       </c>
+      <c r="B408" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -3295,6 +4507,9 @@
           <t>0x88e7029a16443ef0491c5f46042d34d0c56e691f</t>
         </is>
       </c>
+      <c r="B409" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -3302,6 +4517,9 @@
           <t>0x89f46caed4ae4727292ec31b30af1b2d4b8905e8</t>
         </is>
       </c>
+      <c r="B410" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -3309,6 +4527,9 @@
           <t>0x89f8df14d6b94052c4ae00b60aced42639fbdbed</t>
         </is>
       </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -3316,6 +4537,9 @@
           <t>0x8a630b2d1e25f1ad066feaa090f5bdb63a1451cc</t>
         </is>
       </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -3323,6 +4547,9 @@
           <t>0x8a754e689f2fcba0c900028fa235043b595c994d</t>
         </is>
       </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -3330,6 +4557,9 @@
           <t>0x8b099bdcfea93faecfac13d0dbc1d08c4e1ec595</t>
         </is>
       </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -3337,6 +4567,9 @@
           <t>0x8b548505babfd983fc45210499b44e340bb85d76</t>
         </is>
       </c>
+      <c r="B415" t="n">
+        <v>939</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -3344,6 +4577,9 @@
           <t>0x8b801af263b32a118575fc85e44fa05a2e8f6b36</t>
         </is>
       </c>
+      <c r="B416" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -3351,6 +4587,9 @@
           <t>0x8b9c51d1527ff7510b1646c4f63d98e33baae756</t>
         </is>
       </c>
+      <c r="B417" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -3358,6 +4597,9 @@
           <t>0x8bb69cb26480d452d4d2254f59ccd0b9953ee9b4</t>
         </is>
       </c>
+      <c r="B418" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -3365,6 +4607,9 @@
           <t>0x8bf1e43e3ca6f5c25c380803154ae687d682ad32</t>
         </is>
       </c>
+      <c r="B419" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -3372,6 +4617,9 @@
           <t>0x8c0a0d815aeb795883c8aa8376cf535c87676230</t>
         </is>
       </c>
+      <c r="B420" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -3379,6 +4627,9 @@
           <t>0x8c9f657fe6049f7e5890b3f67f45a2e7a6e0048f</t>
         </is>
       </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -3386,6 +4637,9 @@
           <t>0x8cb08d6379e79aa4b84a809bcf55ba5a00407e93</t>
         </is>
       </c>
+      <c r="B422" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -3393,6 +4647,9 @@
           <t>0x8cc0d6ef2b1dec73f420a32ca44e613620f712cd</t>
         </is>
       </c>
+      <c r="B423" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -3400,6 +4657,9 @@
           <t>0x8cc26aa53cbd517bc2828b279957e9508f75779d</t>
         </is>
       </c>
+      <c r="B424" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -3407,6 +4667,9 @@
           <t>0x8cce51969a93ee5235e5955b8e3d649db7f10b81</t>
         </is>
       </c>
+      <c r="B425" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -3414,6 +4677,9 @@
           <t>0x8cd448c5fdbf2c79f640a5326a6f86fbce03d3bb</t>
         </is>
       </c>
+      <c r="B426" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -3421,6 +4687,9 @@
           <t>0x8cdc892df28249ad590d07bdfd5ed6d496f29a01</t>
         </is>
       </c>
+      <c r="B427" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -3428,6 +4697,9 @@
           <t>0x8d2c0e328e866108e9ce6af0d7c3b77318fdc043</t>
         </is>
       </c>
+      <c r="B428" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -3435,6 +4707,9 @@
           <t>0x8d4feae082902b3c81675febbe35c2aaea9c8cab</t>
         </is>
       </c>
+      <c r="B429" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -3442,6 +4717,9 @@
           <t>0x8d8194537110a4659d4bf0b8df030b0ced50b39e</t>
         </is>
       </c>
+      <c r="B430" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -3449,6 +4727,9 @@
           <t>0x8ddc117d6a7a5fcaa33579741bd34d50898b4d2d</t>
         </is>
       </c>
+      <c r="B431" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -3456,6 +4737,9 @@
           <t>0x8e1a99d8dbe5687f74c74f18295c4928ce2f676d</t>
         </is>
       </c>
+      <c r="B432" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -3463,6 +4747,9 @@
           <t>0x8e26e48cc5ba742813be32f1f6ec0ef99d848e9e</t>
         </is>
       </c>
+      <c r="B433" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -3470,6 +4757,9 @@
           <t>0x8e4254c212c521c5f88a1f039338e067a06b1dfa</t>
         </is>
       </c>
+      <c r="B434" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -3477,6 +4767,9 @@
           <t>0x8efde099174f8c4879e7a0d74be2d77c91f31058</t>
         </is>
       </c>
+      <c r="B435" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -3484,6 +4777,9 @@
           <t>0x8fd1c78ed8b3de2a025373b2bbd820c03939f760</t>
         </is>
       </c>
+      <c r="B436" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -3491,6 +4787,9 @@
           <t>0x914a25129a6261a1693988c0e55557eb124355e3</t>
         </is>
       </c>
+      <c r="B437" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -3498,6 +4797,9 @@
           <t>0x915564ebd337d9193c2b2680029b79a6903757de</t>
         </is>
       </c>
+      <c r="B438" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -3505,6 +4807,9 @@
           <t>0x9168fdc9f9db7b71865fe4bfd6f78b3610ebc704</t>
         </is>
       </c>
+      <c r="B439" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -3512,6 +4817,9 @@
           <t>0x9284c4b9da2c97d63bdb930aaa8eb751299fc8d4</t>
         </is>
       </c>
+      <c r="B440" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -3519,6 +4827,9 @@
           <t>0x92a92648bd788dcaa086773c975d928b4a60a182</t>
         </is>
       </c>
+      <c r="B441" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -3526,6 +4837,9 @@
           <t>0x92ea0d71b3f51883968e52da5db41baf8b35b4c1</t>
         </is>
       </c>
+      <c r="B442" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -3533,6 +4847,9 @@
           <t>0x9330c11cd9226e3ef97d2e99625d1f9096a68a5a</t>
         </is>
       </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -3540,6 +4857,9 @@
           <t>0x93f00dfc1f0feaf4ef710633a111c6f15fd1fe6b</t>
         </is>
       </c>
+      <c r="B444" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -3547,6 +4867,9 @@
           <t>0x9486120332526054fb2ac591d54513ff72b618d4</t>
         </is>
       </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -3554,6 +4877,9 @@
           <t>0x94cfaed87b43bd64f73da2e85b302dd5d535e30e</t>
         </is>
       </c>
+      <c r="B446" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -3561,6 +4887,9 @@
           <t>0x9540d07283eede5469e7f22822d45b132d4ad474</t>
         </is>
       </c>
+      <c r="B447" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -3568,6 +4897,9 @@
           <t>0x95411d0acaa34aaaf85c0ea55a8fde2cefb3d610</t>
         </is>
       </c>
+      <c r="B448" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -3575,6 +4907,9 @@
           <t>0x96299dc3cb5c2a936058a9b200a60f722c721b69</t>
         </is>
       </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -3582,6 +4917,9 @@
           <t>0x968f5d1cf4fb75dd8c2a4ef8ffc701b2e935942b</t>
         </is>
       </c>
+      <c r="B450" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -3589,6 +4927,9 @@
           <t>0x96a76ab0467d438b01d721e2657092fc6034db53</t>
         </is>
       </c>
+      <c r="B451" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -3596,6 +4937,9 @@
           <t>0x96b709bbc1454716857605db9c942544668af79b</t>
         </is>
       </c>
+      <c r="B452" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -3603,6 +4947,9 @@
           <t>0x96d619298ee99c1f34462a38e192ac3d9eea127f</t>
         </is>
       </c>
+      <c r="B453" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -3610,6 +4957,9 @@
           <t>0x9712f804721078550656f7868aa58a16b63592c3</t>
         </is>
       </c>
+      <c r="B454" t="n">
+        <v>1161</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -3617,6 +4967,9 @@
           <t>0x972dc0ee6fc536378dde23e63a143cfd9995e18c</t>
         </is>
       </c>
+      <c r="B455" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -3624,6 +4977,9 @@
           <t>0x974973d316be10725444ef4f6e3bf1eb5e9f6678</t>
         </is>
       </c>
+      <c r="B456" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -3631,6 +4987,9 @@
           <t>0x97a64e9e7a2d4a2c3e810c41d8842d673d32537e</t>
         </is>
       </c>
+      <c r="B457" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -3638,6 +4997,9 @@
           <t>0x97fd218252244bddd5540aa638acfca0b783e50c</t>
         </is>
       </c>
+      <c r="B458" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -3645,6 +5007,9 @@
           <t>0x98ab4a70bf27afad6e0e88464cbffc524e7daf6b</t>
         </is>
       </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -3652,6 +5017,9 @@
           <t>0x993bfef7c9989db29fb2d2bd656d75e03e44b6cc</t>
         </is>
       </c>
+      <c r="B460" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -3659,6 +5027,9 @@
           <t>0x998a60f88706ad37bc240318755b903aaa36ba95</t>
         </is>
       </c>
+      <c r="B461" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -3666,6 +5037,9 @@
           <t>0x99925cc9a57f5e473ff22314cfe0627a0bfcceb4</t>
         </is>
       </c>
+      <c r="B462" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -3673,6 +5047,9 @@
           <t>0x99b34122d26e9693070e0cc43accdcfa77339dca</t>
         </is>
       </c>
+      <c r="B463" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -3680,6 +5057,9 @@
           <t>0x9a3da065e1100a5613dc15b594f0f6193b419e96</t>
         </is>
       </c>
+      <c r="B464" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -3687,6 +5067,9 @@
           <t>0x9a6fb86bd26cbcbf5ba1b9dfd55f479875f310cb</t>
         </is>
       </c>
+      <c r="B465" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -3694,6 +5077,9 @@
           <t>0x9aa3773e0fe7dc5da2473d200a58a839074cc002</t>
         </is>
       </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -3701,6 +5087,9 @@
           <t>0x9b2f30c69f31559c99a04dcdfa19de1b1cf9d265</t>
         </is>
       </c>
+      <c r="B467" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -3708,6 +5097,9 @@
           <t>0x9bdf84b97c7eb4d61f3bd424d685bd54e83b61dd</t>
         </is>
       </c>
+      <c r="B468" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -3715,6 +5107,9 @@
           <t>0x9bf393afac08096f8c7c9b9b932afc106f65b615</t>
         </is>
       </c>
+      <c r="B469" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -3722,6 +5117,9 @@
           <t>0x9c0aa089ad8b3728d6ff2d87cdbc4348a6c707ee</t>
         </is>
       </c>
+      <c r="B470" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -3729,6 +5127,9 @@
           <t>0x9c731584b4422c9f7f7cfd6909b36a72b76ae115</t>
         </is>
       </c>
+      <c r="B471" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -3736,6 +5137,9 @@
           <t>0x9c828aa56c297e6fb98bef9bb455d9d6a0b5d71f</t>
         </is>
       </c>
+      <c r="B472" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -3743,6 +5147,9 @@
           <t>0x9cdfd805d73b4837bf3f7b2296996aaecc881e86</t>
         </is>
       </c>
+      <c r="B473" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -3750,6 +5157,9 @@
           <t>0x9ce826471f5055547f3589179489aee9b34b39bc</t>
         </is>
       </c>
+      <c r="B474" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -3757,6 +5167,9 @@
           <t>0x9d31a523718e06f630de0757538f4fb2e2adeb35</t>
         </is>
       </c>
+      <c r="B475" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -3764,6 +5177,9 @@
           <t>0x9d31ff892f984a83e8b342a5ece8e8911ed909e0</t>
         </is>
       </c>
+      <c r="B476" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -3771,6 +5187,9 @@
           <t>0x9d5adbff562c0ae85995bdf1c15bd1f8a9db928c</t>
         </is>
       </c>
+      <c r="B477" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -3778,6 +5197,9 @@
           <t>0x9e762daeb001dc7778d0eb043d530357f0c4666c</t>
         </is>
       </c>
+      <c r="B478" t="n">
+        <v>540</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -3785,6 +5207,9 @@
           <t>0x9ea5b12af209634b92129b7b011ed36cb3299dd3</t>
         </is>
       </c>
+      <c r="B479" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -3792,6 +5217,9 @@
           <t>0x9ef2767b5c265cd032a94601203639abcd9cb92f</t>
         </is>
       </c>
+      <c r="B480" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -3799,6 +5227,9 @@
           <t>0x9f352d623371eda3a28f9d9c8ca73a5124f2d9fc</t>
         </is>
       </c>
+      <c r="B481" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -3806,6 +5237,9 @@
           <t>0x9f4d708b839bfc3e44146dfcf809af89d5272093</t>
         </is>
       </c>
+      <c r="B482" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -3813,6 +5247,9 @@
           <t>0x9f54d912a029380f2743aaf4ddd28c3f207cd719</t>
         </is>
       </c>
+      <c r="B483" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -3820,6 +5257,9 @@
           <t>0x9f63a5d92162975a08555f54752503b96277526d</t>
         </is>
       </c>
+      <c r="B484" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -3827,6 +5267,9 @@
           <t>0x9f69b9ef74669262f55cca4650add92ae6a56349</t>
         </is>
       </c>
+      <c r="B485" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -3834,6 +5277,9 @@
           <t>0x9f6ae96be72cd4f9870e66c953d58f6d3af502e8</t>
         </is>
       </c>
+      <c r="B486" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -3841,6 +5287,9 @@
           <t>0x9fadbdac1b57b08381e74a3591b84a138102dc23</t>
         </is>
       </c>
+      <c r="B487" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -3848,6 +5297,9 @@
           <t>0x9fbf5d3b362558553e8fde4693717c6f72aa19de</t>
         </is>
       </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -3855,6 +5307,9 @@
           <t>0x9fcd683584173c5df0ee47852f5592f68ed72a0c</t>
         </is>
       </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -3862,6 +5317,9 @@
           <t>0x9ffe3a0864cce4995a6b385b99de3644cc8d2483</t>
         </is>
       </c>
+      <c r="B490" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -3869,6 +5327,9 @@
           <t>0xa010cfd6e52336eb25adacafb005c516645193dd</t>
         </is>
       </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -3876,6 +5337,9 @@
           <t>0xa0174f796d3b901adaa16cfbb589330462be0329</t>
         </is>
       </c>
+      <c r="B492" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -3883,6 +5347,9 @@
           <t>0xa0d537762cb98c7fd0a8439661a0ee5eb88b4152</t>
         </is>
       </c>
+      <c r="B493" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -3890,6 +5357,9 @@
           <t>0xa0eb827c013d3c5170cbb1f57a5f83f1c41caf74</t>
         </is>
       </c>
+      <c r="B494" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -3897,6 +5367,9 @@
           <t>0xa0fefbecb3f5c36b683d03f280f2294e4b0eb5f4</t>
         </is>
       </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -3904,6 +5377,9 @@
           <t>0xa19118ddbabbf3d538db6a46578f3260e26b89b9</t>
         </is>
       </c>
+      <c r="B496" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -3911,6 +5387,9 @@
           <t>0xa1a56c01a6dc24db4efe9d0d8de06a44f0b3838d</t>
         </is>
       </c>
+      <c r="B497" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -3918,6 +5397,9 @@
           <t>0xa1c1983aa3599657a74cf5a563e880eedc57ae4f</t>
         </is>
       </c>
+      <c r="B498" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -3925,6 +5407,9 @@
           <t>0xa1e70923902524faf901a3978f499908f689d114</t>
         </is>
       </c>
+      <c r="B499" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -3932,6 +5417,9 @@
           <t>0xa2562cd0d8620dc2bec07872ecaadd4b6fbdc02f</t>
         </is>
       </c>
+      <c r="B500" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -3939,6 +5427,9 @@
           <t>0xa2e655dd84ffb827bb6ae1f23d7d3b4173b143b1</t>
         </is>
       </c>
+      <c r="B501" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -3946,6 +5437,9 @@
           <t>0xa2fb4ba67ef28bd9d0548a537aaff66e7a5951aa</t>
         </is>
       </c>
+      <c r="B502" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -3953,6 +5447,9 @@
           <t>0xa304100e0d17a972f34ed8a961034ce2fc47f9ca</t>
         </is>
       </c>
+      <c r="B503" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -3960,6 +5457,9 @@
           <t>0xa3389a7bf3ab7b090e171f838034d12f8d3faa98</t>
         </is>
       </c>
+      <c r="B504" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -3967,6 +5467,9 @@
           <t>0xa3812950f92bc324e274be2df8f3fbe460e4ed52</t>
         </is>
       </c>
+      <c r="B505" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -3974,6 +5477,9 @@
           <t>0xa3cd2dd81c0115d801282f1711e9656ae2770566</t>
         </is>
       </c>
+      <c r="B506" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -3981,6 +5487,9 @@
           <t>0xa40b712229ddea8fd841c5e6cb104fc15e7e3054</t>
         </is>
       </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -3988,6 +5497,9 @@
           <t>0xa41aa09607ca80ee60d2ce166d4c02a71860e5c5</t>
         </is>
       </c>
+      <c r="B508" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -3995,6 +5507,9 @@
           <t>0xa43ef3ec09c844dccb09b4d193a7f407bd81f264</t>
         </is>
       </c>
+      <c r="B509" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -4002,6 +5517,9 @@
           <t>0xa515f59ca4be22e9f082d7c56056037514f8481d</t>
         </is>
       </c>
+      <c r="B510" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -4009,6 +5527,9 @@
           <t>0xa55e851322e8f272f1db1676ae19cb5711d0fb52</t>
         </is>
       </c>
+      <c r="B511" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -4016,6 +5537,9 @@
           <t>0xa57a1377df22f3e6d9a520943e96fb3ccd2209bc</t>
         </is>
       </c>
+      <c r="B512" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -4023,6 +5547,9 @@
           <t>0xa614bbfc9f7411ac008c78bfdd1a7f9e0e5180db</t>
         </is>
       </c>
+      <c r="B513" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -4030,6 +5557,9 @@
           <t>0xa6303bb076a1ff08df3cf00212cdc01500ff13fe</t>
         </is>
       </c>
+      <c r="B514" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -4037,6 +5567,9 @@
           <t>0xa661d30ed10195a946a73d299645678338807ecb</t>
         </is>
       </c>
+      <c r="B515" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -4044,6 +5577,9 @@
           <t>0xa671f2914ba0e73979ffc47cd350801d1714b18f</t>
         </is>
       </c>
+      <c r="B516" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -4051,6 +5587,9 @@
           <t>0xa6a18b8d5a978dbff878b77bd785b778f00d2404</t>
         </is>
       </c>
+      <c r="B517" t="n">
+        <v>2472</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -4058,6 +5597,9 @@
           <t>0xa6aef41be341fb364a432fb04a5d2bdd57546c76</t>
         </is>
       </c>
+      <c r="B518" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -4065,6 +5607,9 @@
           <t>0xa88146aed78cba4a98eb7f6c25158587a9e49544</t>
         </is>
       </c>
+      <c r="B519" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -4072,6 +5617,9 @@
           <t>0xa935a7d31c680344426bd5d3dc94fb65d1da3c31</t>
         </is>
       </c>
+      <c r="B520" t="n">
+        <v>699</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -4079,6 +5627,9 @@
           <t>0xa9958ed59bafcfe2e156748222ca325b75388881</t>
         </is>
       </c>
+      <c r="B521" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -4086,6 +5637,9 @@
           <t>0xaa44a4443d095a8064104ed680ef5070fa72399c</t>
         </is>
       </c>
+      <c r="B522" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -4093,6 +5647,9 @@
           <t>0xaa54201cab79e4de3072ededd32ea68d8cfa2375</t>
         </is>
       </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -4100,6 +5657,9 @@
           <t>0xaa929c976386d6c8e79c14bc16075d54e2693247</t>
         </is>
       </c>
+      <c r="B524" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -4107,6 +5667,9 @@
           <t>0xaa93338ef3b64a50dcfb2eba57a1eb4ad59d955b</t>
         </is>
       </c>
+      <c r="B525" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -4114,6 +5677,9 @@
           <t>0xaaeb3fe6a763f050f3ba384e8f8fcafa04bf44bc</t>
         </is>
       </c>
+      <c r="B526" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -4121,6 +5687,9 @@
           <t>0xab09f0fb6ff4bd4788b8187736b7ad94a77506fe</t>
         </is>
       </c>
+      <c r="B527" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -4128,6 +5697,9 @@
           <t>0xac21d7c5edb51b5929d37be36b346fac79b2e602</t>
         </is>
       </c>
+      <c r="B528" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -4135,6 +5707,9 @@
           <t>0xac3a018b22677a52c4a5c5aabca551898abc49d1</t>
         </is>
       </c>
+      <c r="B529" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -4142,6 +5717,9 @@
           <t>0xac87b21684af3809d1aa6fee9ee05068bdacb3fe</t>
         </is>
       </c>
+      <c r="B530" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -4149,6 +5727,9 @@
           <t>0xad0528aa8ffefb94a22c24720a431822591c1d38</t>
         </is>
       </c>
+      <c r="B531" t="n">
+        <v>517</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -4156,6 +5737,9 @@
           <t>0xad4c4ff144e42c73b6333b75af3cee5af901c10e</t>
         </is>
       </c>
+      <c r="B532" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -4163,6 +5747,9 @@
           <t>0xad955e391cf54d679c8eb2d4ea9692ec3e338c70</t>
         </is>
       </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -4170,6 +5757,9 @@
           <t>0xae349ce4f8eb520020066199102992ae005dbbc0</t>
         </is>
       </c>
+      <c r="B534" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -4177,6 +5767,9 @@
           <t>0xaee056c6c1071512657f094af550d1af74db0622</t>
         </is>
       </c>
+      <c r="B535" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -4184,6 +5777,9 @@
           <t>0xaef15564aed6447ed3debd89c8f28c10a5a52eec</t>
         </is>
       </c>
+      <c r="B536" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -4191,6 +5787,9 @@
           <t>0xaf531dc0b3b1151af48f3d638eeb6fe6acdfd59f</t>
         </is>
       </c>
+      <c r="B537" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -4198,6 +5797,9 @@
           <t>0xafca09726310a2b8e5fca4200f818a5e6bd0cf50</t>
         </is>
       </c>
+      <c r="B538" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -4205,6 +5807,9 @@
           <t>0xb055ee6c86b4202c0690723a9b9b47a869ff9d49</t>
         </is>
       </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -4212,6 +5817,9 @@
           <t>0xb17b1432ad1e2414c36f3a65fa1d21dd32f2f1f4</t>
         </is>
       </c>
+      <c r="B540" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -4219,6 +5827,9 @@
           <t>0xb23fecec4202b868c228ac0a59cc12a9f93bd605</t>
         </is>
       </c>
+      <c r="B541" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -4226,6 +5837,9 @@
           <t>0xb2d15402d12528ec560c54c46bf0f7ba8fb4c63d</t>
         </is>
       </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -4233,6 +5847,9 @@
           <t>0xb2f6ebe8e606e7b18c78b19a3c5969618fa599da</t>
         </is>
       </c>
+      <c r="B543" t="n">
+        <v>2145</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -4240,6 +5857,9 @@
           <t>0xb31820c1d84e183377030b6d3f0e1ee5c1cff643</t>
         </is>
       </c>
+      <c r="B544" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -4247,6 +5867,9 @@
           <t>0xb3707eabedf0e9daf1b9d91b881e05dd69bf0ce6</t>
         </is>
       </c>
+      <c r="B545" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -4254,6 +5877,9 @@
           <t>0xb420c4a685b9b436d96ff30ed7dfe1290aca9680</t>
         </is>
       </c>
+      <c r="B546" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -4261,6 +5887,9 @@
           <t>0xb43b5be03416ca16f7b9749c6aba818538dcc032</t>
         </is>
       </c>
+      <c r="B547" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -4268,6 +5897,9 @@
           <t>0xb442e7315d24bb120ddfc778612116dd5c90dc46</t>
         </is>
       </c>
+      <c r="B548" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -4275,6 +5907,9 @@
           <t>0xb44822a2bd88f68cc69c0a783517ce625cc0fb92</t>
         </is>
       </c>
+      <c r="B549" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -4282,6 +5917,9 @@
           <t>0xb539d2a77de6a169fca51c929ac724c47aa9e97c</t>
         </is>
       </c>
+      <c r="B550" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -4289,6 +5927,9 @@
           <t>0xb565892f839ed2b0aa48efa7c952b213eaed3166</t>
         </is>
       </c>
+      <c r="B551" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -4296,6 +5937,9 @@
           <t>0xb57b9206d75c1bb02cb64f97fb5176eae731a62d</t>
         </is>
       </c>
+      <c r="B552" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -4303,6 +5947,9 @@
           <t>0xb5aff01f3e820735fac9abb594dc9993cb9e5bd2</t>
         </is>
       </c>
+      <c r="B553" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -4310,6 +5957,9 @@
           <t>0xb5c0e43a6330b9eb904ec57ea24d70269ae4652e</t>
         </is>
       </c>
+      <c r="B554" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -4317,6 +5967,9 @@
           <t>0xb61fb596b0cc9fa829d678eb0b8a0e058c3f1b91</t>
         </is>
       </c>
+      <c r="B555" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -4324,6 +5977,9 @@
           <t>0xb6fd124ca6eceb00b747947a065f31392eec4572</t>
         </is>
       </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -4331,6 +5987,9 @@
           <t>0xb7177696646a98a70520c37740d4a7659362f5b3</t>
         </is>
       </c>
+      <c r="B557" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -4338,6 +5997,9 @@
           <t>0xb71cd8f21d5c21edcd113ca2807189ddcaf9dd44</t>
         </is>
       </c>
+      <c r="B558" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -4345,6 +6007,9 @@
           <t>0xb73b2dfc6d756a8726ad7f5ed713f527ece697b5</t>
         </is>
       </c>
+      <c r="B559" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -4352,6 +6017,9 @@
           <t>0xb79023290a28c8aa245e286a9e2d0284db9a16bc</t>
         </is>
       </c>
+      <c r="B560" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -4359,6 +6027,9 @@
           <t>0xb7b46129c580d8bb4f643ec29130a99e0593a696</t>
         </is>
       </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -4366,6 +6037,9 @@
           <t>0xb7d7f0223c2330f09dc8f4fa8b124e9a24593e1b</t>
         </is>
       </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -4373,6 +6047,9 @@
           <t>0xb7ec5cadc507b70f424f06ac0c5265a5badb35aa</t>
         </is>
       </c>
+      <c r="B563" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -4380,6 +6057,9 @@
           <t>0xb84005872b407999a4a97f91d5ef40baaf1b9dc2</t>
         </is>
       </c>
+      <c r="B564" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -4387,6 +6067,9 @@
           <t>0xb856a6aa72c8fe5ced46ff570419f3bcfc1f9082</t>
         </is>
       </c>
+      <c r="B565" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -4394,6 +6077,9 @@
           <t>0xb8842b95a9c0cdbd4c0d6e0319b8d46792830677</t>
         </is>
       </c>
+      <c r="B566" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -4401,6 +6087,9 @@
           <t>0xb8d24ac55866236b2c7b8fb046ca110d488fba02</t>
         </is>
       </c>
+      <c r="B567" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -4408,6 +6097,9 @@
           <t>0xb9a944dec5cf3be2a0aa392fc3318258c7c54d47</t>
         </is>
       </c>
+      <c r="B568" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -4415,6 +6107,9 @@
           <t>0xb9b2b770e023bbf0b9ddae53a09e3b03ce0f685f</t>
         </is>
       </c>
+      <c r="B569" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -4422,6 +6117,9 @@
           <t>0xba48243448d23b770c6d7da12b4babfdf9470d4d</t>
         </is>
       </c>
+      <c r="B570" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -4429,6 +6127,9 @@
           <t>0xbac2c4f8804d44fb90dbf3324784044d4ce1c6bb</t>
         </is>
       </c>
+      <c r="B571" t="n">
+        <v>711</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -4436,6 +6137,9 @@
           <t>0xbbc083f213a151a552876b09372a9f98600592f2</t>
         </is>
       </c>
+      <c r="B572" t="n">
+        <v>927</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -4443,6 +6147,9 @@
           <t>0xbbc5d510bab53b2199fb17fe1d896eb78911e103</t>
         </is>
       </c>
+      <c r="B573" t="n">
+        <v>593</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -4450,6 +6157,9 @@
           <t>0xbbd7b196d8ce1f56b2901145b3fcfc42cded5596</t>
         </is>
       </c>
+      <c r="B574" t="n">
+        <v>4689</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -4457,6 +6167,9 @@
           <t>0xbbec422aeccf291e9c773ead036858d25ed87899</t>
         </is>
       </c>
+      <c r="B575" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -4464,6 +6177,9 @@
           <t>0xbbfdae4b3fafba81ac518121624d4501d5afeaba</t>
         </is>
       </c>
+      <c r="B576" t="n">
+        <v>1754</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -4471,6 +6187,9 @@
           <t>0xbcdc1bc6051292ccd9a9907c41157d044c812cfb</t>
         </is>
       </c>
+      <c r="B577" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -4478,6 +6197,9 @@
           <t>0xbd3476e32de1077e049d0c4767c650230be38bda</t>
         </is>
       </c>
+      <c r="B578" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -4485,6 +6207,9 @@
           <t>0xbd5af6f705e4582c3f2b368ccf278ce39c3cfc17</t>
         </is>
       </c>
+      <c r="B579" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -4492,6 +6217,9 @@
           <t>0xbd96bc15aa5f94ab98f320ac62cb255dfd2e1dc3</t>
         </is>
       </c>
+      <c r="B580" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -4499,6 +6227,9 @@
           <t>0xbddd99e8aaeb85847703c31a83277856d49961d9</t>
         </is>
       </c>
+      <c r="B581" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -4506,6 +6237,9 @@
           <t>0xbe6ca916f280572012abd4ad4292a28386a1ff23</t>
         </is>
       </c>
+      <c r="B582" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -4513,6 +6247,9 @@
           <t>0xbf008cb93c2b19c3ae0db4149bcfa465b2ea0888</t>
         </is>
       </c>
+      <c r="B583" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -4520,6 +6257,9 @@
           <t>0xbf1181672a2cb95a09d6d39dfc0c28d50e189f9c</t>
         </is>
       </c>
+      <c r="B584" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -4527,6 +6267,9 @@
           <t>0xbf82db1b1c1d9c8e12c3266f4e157f67fedee582</t>
         </is>
       </c>
+      <c r="B585" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -4534,6 +6277,9 @@
           <t>0xbfa5c2f2b2ea28d7cad06d8a5ad796425ab999c5</t>
         </is>
       </c>
+      <c r="B586" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -4541,6 +6287,9 @@
           <t>0xc013a9119b4aaef512b2338026183db9cd0c4029</t>
         </is>
       </c>
+      <c r="B587" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -4548,6 +6297,9 @@
           <t>0xc037f2d079a7e23674b23676e34db9635da289db</t>
         </is>
       </c>
+      <c r="B588" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -4555,6 +6307,9 @@
           <t>0xc03b0dbd201ee426d907e367f996706cf53b8028</t>
         </is>
       </c>
+      <c r="B589" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -4562,6 +6317,9 @@
           <t>0xc0e3cf6d466b2273f3aa105c96325830ba884ba1</t>
         </is>
       </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -4569,6 +6327,9 @@
           <t>0xc0e6c996f3642c3ff3287ef01375fa7b72702797</t>
         </is>
       </c>
+      <c r="B591" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -4576,6 +6337,9 @@
           <t>0xc0f29798c57e890cac82a79dadbebfb3d3fa67b9</t>
         </is>
       </c>
+      <c r="B592" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -4583,6 +6347,9 @@
           <t>0xc1139359eec93fe5534a2e426de3125cc013f980</t>
         </is>
       </c>
+      <c r="B593" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -4590,6 +6357,9 @@
           <t>0xc1235e853325cebfadb6e7601234ad613206dd89</t>
         </is>
       </c>
+      <c r="B594" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -4597,6 +6367,9 @@
           <t>0xc16c28d110697b1ad7a0f640eee2e343febea43b</t>
         </is>
       </c>
+      <c r="B595" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -4604,6 +6377,9 @@
           <t>0xc17016d7f3b7be3ab4f3468cd33913dc010dbf96</t>
         </is>
       </c>
+      <c r="B596" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -4611,6 +6387,9 @@
           <t>0xc19aba5148a8e8e2b813d40be1276312feddb813</t>
         </is>
       </c>
+      <c r="B597" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -4618,6 +6397,9 @@
           <t>0xc24edcd9581b47bc64102db78807d0fb0c296761</t>
         </is>
       </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -4625,6 +6407,9 @@
           <t>0xc2cb0401d640a150a74d92c9b1814974bede8d87</t>
         </is>
       </c>
+      <c r="B599" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -4632,6 +6417,9 @@
           <t>0xc30b4acfedde446dad7aeb17d7ed5d1f6e056c51</t>
         </is>
       </c>
+      <c r="B600" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -4639,6 +6427,9 @@
           <t>0xc3541f0c65d54088519999a09f40884282d5e374</t>
         </is>
       </c>
+      <c r="B601" t="n">
+        <v>1086</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -4646,6 +6437,9 @@
           <t>0xc39459f4d3d9c87551f7c0fb0982bfea0d14dda6</t>
         </is>
       </c>
+      <c r="B602" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -4653,6 +6447,9 @@
           <t>0xc41b6172b2dd5d3b654158986cbce523dd4b8d1d</t>
         </is>
       </c>
+      <c r="B603" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -4660,6 +6457,9 @@
           <t>0xc43d52c637d6b2505fcd125cd37a771768c252bf</t>
         </is>
       </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -4667,6 +6467,9 @@
           <t>0xc4bf277257c140a799b785c6c5096c6da7ef6a62</t>
         </is>
       </c>
+      <c r="B605" t="n">
+        <v>1087</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -4674,6 +6477,9 @@
           <t>0xc4c89dd46524c6f704e92a9cd012a3ebadadff36</t>
         </is>
       </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -4681,6 +6487,9 @@
           <t>0xc585ddbf02254b3711dec711239e7241132b44a7</t>
         </is>
       </c>
+      <c r="B607" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -4688,6 +6497,9 @@
           <t>0xc5c5aa3f03523c3e5442cd6bc41076cb194e4d11</t>
         </is>
       </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -4695,6 +6507,9 @@
           <t>0xc609b80c81d690b2ec39f70a5638fff8902a1d89</t>
         </is>
       </c>
+      <c r="B609" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -4702,6 +6517,9 @@
           <t>0xc67e520f6ff27552411c458cf3cf6a920dbd0832</t>
         </is>
       </c>
+      <c r="B610" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -4709,6 +6527,9 @@
           <t>0xc6a3900c12ee2bf47890834a8e505f5a83588ca9</t>
         </is>
       </c>
+      <c r="B611" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -4716,6 +6537,9 @@
           <t>0xc726ac92955fc07ad09c5af4827418f581e37017</t>
         </is>
       </c>
+      <c r="B612" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -4723,6 +6547,9 @@
           <t>0xc7c11eb6983787f7aa0c20abeeac8101cf621e47</t>
         </is>
       </c>
+      <c r="B613" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -4730,6 +6557,9 @@
           <t>0xc7f1907704e6ad1f846f662c2e967cfcb04c8621</t>
         </is>
       </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -4737,6 +6567,9 @@
           <t>0xc7fa024440ad999611eaf8b60500fc83e55e02e3</t>
         </is>
       </c>
+      <c r="B615" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -4744,6 +6577,9 @@
           <t>0xc80143a2ffb9620ffc7e2e241bc8cec34599bd52</t>
         </is>
       </c>
+      <c r="B616" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -4751,6 +6587,9 @@
           <t>0xc88fe44147aa5d8cd85d4f972d6002cc2b536eea</t>
         </is>
       </c>
+      <c r="B617" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -4758,6 +6597,9 @@
           <t>0xc96f23a166c2cb107230a85371abf28c144aa793</t>
         </is>
       </c>
+      <c r="B618" t="n">
+        <v>4683</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -4765,6 +6607,9 @@
           <t>0xc97c8d54ede620f50d6652fc6d3ea8db792feca0</t>
         </is>
       </c>
+      <c r="B619" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -4772,6 +6617,9 @@
           <t>0xc99b3615724b7c4d3e4b348cfc8a25b9e2133828</t>
         </is>
       </c>
+      <c r="B620" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -4779,6 +6627,9 @@
           <t>0xca6ec8fea6296cc3e5fef464d5ff49ea4c099c43</t>
         </is>
       </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -4786,6 +6637,9 @@
           <t>0xcb8d1c16f97f86b4aaa400a50771bc958b9ba116</t>
         </is>
       </c>
+      <c r="B622" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -4793,6 +6647,9 @@
           <t>0xcc27ce64cf6f807cebfac616ccfe512641fa503d</t>
         </is>
       </c>
+      <c r="B623" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -4800,6 +6657,9 @@
           <t>0xcc4bb7948ac97b0dd8857552a69893cd0f03ee17</t>
         </is>
       </c>
+      <c r="B624" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -4807,6 +6667,9 @@
           <t>0xcc62541f0492f7a77e46c457500b762f14a87df8</t>
         </is>
       </c>
+      <c r="B625" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -4814,6 +6677,9 @@
           <t>0xcceed0b7185fbe7f69c083a6c0f6ff5910548d75</t>
         </is>
       </c>
+      <c r="B626" t="n">
+        <v>25236</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -4821,6 +6687,9 @@
           <t>0xcd55151868ec87d4fce236f44134cbe096c6fa41</t>
         </is>
       </c>
+      <c r="B627" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -4828,6 +6697,9 @@
           <t>0xcd856a8d411f43392c21d89271dd0bf565128080</t>
         </is>
       </c>
+      <c r="B628" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -4835,6 +6707,9 @@
           <t>0xce650cb2ad12cb4cff730a12524ed9402467a244</t>
         </is>
       </c>
+      <c r="B629" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -4842,6 +6717,9 @@
           <t>0xcef30b40a1b5d38edc4545be7b52575f3cc5b738</t>
         </is>
       </c>
+      <c r="B630" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -4849,6 +6727,9 @@
           <t>0xd02b08f3e868da75a525646a60f836d1f983f3f7</t>
         </is>
       </c>
+      <c r="B631" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -4856,6 +6737,9 @@
           <t>0xd075c653f552068951fa83dc9ace50726f8cb5c1</t>
         </is>
       </c>
+      <c r="B632" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -4863,6 +6747,9 @@
           <t>0xd0d977cf5fa3ce79a6e442c2250e8a5f37b69598</t>
         </is>
       </c>
+      <c r="B633" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -4870,6 +6757,9 @@
           <t>0xd0e72b788adb8775b04602c2d17b37d942fa1365</t>
         </is>
       </c>
+      <c r="B634" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -4877,6 +6767,9 @@
           <t>0xd1195c7dae5d4402ded616b7f3d41524614ef1e3</t>
         </is>
       </c>
+      <c r="B635" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -4884,6 +6777,9 @@
           <t>0xd1395080bcbb3df505a6044bf9294eb85c9ae0e6</t>
         </is>
       </c>
+      <c r="B636" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -4891,6 +6787,9 @@
           <t>0xd173cbb6324c88b6ec969eb055124349181812c1</t>
         </is>
       </c>
+      <c r="B637" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -4898,6 +6797,9 @@
           <t>0xd186865848ed869932032d00f54998a7d0581117</t>
         </is>
       </c>
+      <c r="B638" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -4905,6 +6807,9 @@
           <t>0xd1b5cb3a6ea812c8c444e8d7d5692905df097c0e</t>
         </is>
       </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -4912,6 +6817,9 @@
           <t>0xd1ceeee3ecfff60d9532c37c9d24f68ca0e96453</t>
         </is>
       </c>
+      <c r="B640" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -4919,6 +6827,9 @@
           <t>0xd1ceeee6b94de402e14f24de0871580917ede8a7</t>
         </is>
       </c>
+      <c r="B641" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -4926,6 +6837,9 @@
           <t>0xd1ceeeeee83f8bcf3bedad437202b6154e9f5405</t>
         </is>
       </c>
+      <c r="B642" t="n">
+        <v>1903182</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -4933,6 +6847,9 @@
           <t>0xd1ceeeef70c61da45800bd81be3352160ad72f2a</t>
         </is>
       </c>
+      <c r="B643" t="n">
+        <v>5119</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -4940,6 +6857,9 @@
           <t>0xd21daa01e682f849c8e21bd945bc040103091640</t>
         </is>
       </c>
+      <c r="B644" t="n">
+        <v>471</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -4947,6 +6867,9 @@
           <t>0xd227752efd4a12fb58760ce5999b4eec5ec76640</t>
         </is>
       </c>
+      <c r="B645" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -4954,6 +6877,9 @@
           <t>0xd23f1e6006b1d963d12b96111ba9af8c50709f24</t>
         </is>
       </c>
+      <c r="B646" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -4961,6 +6887,9 @@
           <t>0xd2be917afd50b81b585a5a96866658f9f90d811b</t>
         </is>
       </c>
+      <c r="B647" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -4968,6 +6897,9 @@
           <t>0xd2ea3d1be7b482966ba8627ff009b84bac3bf51e</t>
         </is>
       </c>
+      <c r="B648" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -4975,6 +6907,9 @@
           <t>0xd3b5e17e96fda663da9438f8e1f11185d3433d08</t>
         </is>
       </c>
+      <c r="B649" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -4982,6 +6917,9 @@
           <t>0xd3d06f14b8f57e98edfc2305a3531ca890b5d8bf</t>
         </is>
       </c>
+      <c r="B650" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -4989,6 +6927,9 @@
           <t>0xd4ace0ab7cc226955767a7a9f5c133642a247aa8</t>
         </is>
       </c>
+      <c r="B651" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -4996,6 +6937,9 @@
           <t>0xd64ad4eefaacb96a0865687cfeef4c4a2cfbfef2</t>
         </is>
       </c>
+      <c r="B652" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -5003,6 +6947,9 @@
           <t>0xd67f271c2d3112d86d6991bfdfc8f9f27286bc4b</t>
         </is>
       </c>
+      <c r="B653" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -5010,6 +6957,9 @@
           <t>0xd6995ab4dc3425297d6c7e1cd7eebe97e75740ad</t>
         </is>
       </c>
+      <c r="B654" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -5017,6 +6967,9 @@
           <t>0xd6ad91e5626e76b4d4f8a3b2019294b29df58167</t>
         </is>
       </c>
+      <c r="B655" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -5024,6 +6977,9 @@
           <t>0xd71a90c6903c698b643ac007a7a279f34e444dc3</t>
         </is>
       </c>
+      <c r="B656" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -5031,6 +6987,9 @@
           <t>0xd76c5b71ba091c785aec1a5c1c901b04876d073b</t>
         </is>
       </c>
+      <c r="B657" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -5038,6 +6997,9 @@
           <t>0xd7b79cedac0c9b351a8799436062e3870ff7e702</t>
         </is>
       </c>
+      <c r="B658" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -5045,6 +7007,9 @@
           <t>0xd7c05d4015599b33d8225a69f14cd561f27177eb</t>
         </is>
       </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -5052,6 +7017,9 @@
           <t>0xd7cf8eae66f26e13a400772a054b19fb3d98c269</t>
         </is>
       </c>
+      <c r="B660" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -5059,6 +7027,9 @@
           <t>0xd7e000213f0ffa6e20e1c953bc49867f8d318bfa</t>
         </is>
       </c>
+      <c r="B661" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -5066,6 +7037,9 @@
           <t>0xd7e3c6d99bc2ccdb6fe54b8a5888d14319e65c36</t>
         </is>
       </c>
+      <c r="B662" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -5073,6 +7047,9 @@
           <t>0xd7e53b24e014cd3612d8469fd1d8e371dd7b3024</t>
         </is>
       </c>
+      <c r="B663" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -5080,6 +7057,9 @@
           <t>0xd7e7a876058d8e67efb26ad7b10a4007d90396bc</t>
         </is>
       </c>
+      <c r="B664" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -5087,6 +7067,9 @@
           <t>0xd87eaad7afb256c69526a490f402a658f12246fd</t>
         </is>
       </c>
+      <c r="B665" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -5094,6 +7077,9 @@
           <t>0xd88577ed936819807612c0d4a17ade05adcdf1d3</t>
         </is>
       </c>
+      <c r="B666" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -5101,6 +7087,9 @@
           <t>0xd8be633339d08eca913d7d8a05806ef37a896ef2</t>
         </is>
       </c>
+      <c r="B667" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -5108,6 +7097,9 @@
           <t>0xd8dfe62f20504bc474f00e9b3e6e305e46223c71</t>
         </is>
       </c>
+      <c r="B668" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -5115,6 +7107,9 @@
           <t>0xd989a04ad891528b571ef73dacaefeb0402a65b3</t>
         </is>
       </c>
+      <c r="B669" t="n">
+        <v>14097</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -5122,6 +7117,9 @@
           <t>0xd99bb99326cb7d9f10dcd1fd25fd7ce6c3b8ec46</t>
         </is>
       </c>
+      <c r="B670" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -5129,6 +7127,9 @@
           <t>0xd9aefd94fe932efc8e300eb0d1bc56ae5e590def</t>
         </is>
       </c>
+      <c r="B671" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -5136,6 +7137,9 @@
           <t>0xd9c365c396ceb390a44f4e6e7f48fdb0fdc9778a</t>
         </is>
       </c>
+      <c r="B672" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -5143,6 +7147,9 @@
           <t>0xd9ec750a0aac025f0075413c68502ecf8a9ab64e</t>
         </is>
       </c>
+      <c r="B673" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -5150,6 +7157,9 @@
           <t>0xda8fe472e1beae12973fa48e9a1d9595f752fce0</t>
         </is>
       </c>
+      <c r="B674" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -5157,6 +7167,9 @@
           <t>0xda9378ae021239378752acfb1821bb6ed9309371</t>
         </is>
       </c>
+      <c r="B675" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -5164,6 +7177,9 @@
           <t>0xdaab8a09aed3b98df4fffef85e78cd6f513de7d0</t>
         </is>
       </c>
+      <c r="B676" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -5171,6 +7187,9 @@
           <t>0xdac4f0d74592012eb4baeb608b1992ffe5cc537a</t>
         </is>
       </c>
+      <c r="B677" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -5178,6 +7197,9 @@
           <t>0xdba6f4fe7e8a358150fc861148c3a19b22242743</t>
         </is>
       </c>
+      <c r="B678" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -5185,6 +7207,9 @@
           <t>0xdc8944deaf5da0b81bcd38a87cbad0c0e793116f</t>
         </is>
       </c>
+      <c r="B679" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -5192,6 +7217,9 @@
           <t>0xdccc53ca8263e79548aff6aa81ccf1c42e2c1a89</t>
         </is>
       </c>
+      <c r="B680" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -5199,6 +7227,9 @@
           <t>0xdd1412faf39eab432119d6a153f48e7a51b361e5</t>
         </is>
       </c>
+      <c r="B681" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -5206,6 +7237,9 @@
           <t>0xdd5260833a1b02a75a34b022a76261d5aeac598e</t>
         </is>
       </c>
+      <c r="B682" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -5213,6 +7247,9 @@
           <t>0xdd967c0f1a9a4a0a39fc6e6b2e44b620dea027ad</t>
         </is>
       </c>
+      <c r="B683" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -5220,6 +7257,9 @@
           <t>0xdda784ce15449948520580cacb229717cd7ad261</t>
         </is>
       </c>
+      <c r="B684" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -5227,6 +7267,9 @@
           <t>0xdda80deeb2db6d63247b9be73bacd00184fbc83f</t>
         </is>
       </c>
+      <c r="B685" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -5234,6 +7277,9 @@
           <t>0xddaabbeb621fb90c8b10432783f228ff7f888b5f</t>
         </is>
       </c>
+      <c r="B686" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -5241,6 +7287,9 @@
           <t>0xdded8ed84f23ec712ed801eef265c52dfd54b805</t>
         </is>
       </c>
+      <c r="B687" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -5248,6 +7297,9 @@
           <t>0xde0f4df545910f0ce9bbdaf3eeb929705b8a9de0</t>
         </is>
       </c>
+      <c r="B688" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -5255,6 +7307,9 @@
           <t>0xde37fbca32a6e6a39f682c0949adae813f3517f9</t>
         </is>
       </c>
+      <c r="B689" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -5262,6 +7317,9 @@
           <t>0xde5734b4ac337a57b5821c620e83e5224be18515</t>
         </is>
       </c>
+      <c r="B690" t="n">
+        <v>734</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -5269,6 +7327,9 @@
           <t>0xdec590f1e43fa30c43cb3ae71454ee20c1456940</t>
         </is>
       </c>
+      <c r="B691" t="n">
+        <v>995</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -5276,6 +7337,9 @@
           <t>0xdefaa13496498e4267982402ac668ca754b04c5d</t>
         </is>
       </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -5283,6 +7347,9 @@
           <t>0xdefdfd4fd2f950c86edf33f9951d626fcf9a601e</t>
         </is>
       </c>
+      <c r="B693" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -5290,6 +7357,9 @@
           <t>0xdf35d37907d70b896dd602e71b6e22339f0c62d9</t>
         </is>
       </c>
+      <c r="B694" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -5297,6 +7367,9 @@
           <t>0xdf861993edbe95bafbfa7760838f8ebbd5afda9f</t>
         </is>
       </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -5304,6 +7377,9 @@
           <t>0xdfc8ecb515c0bb72de8bcbe0cb7a2d84b65c8027</t>
         </is>
       </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -5311,6 +7387,9 @@
           <t>0xdfe639317f8e7653fd72abeac1900f94952152b2</t>
         </is>
       </c>
+      <c r="B697" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -5318,6 +7397,9 @@
           <t>0xe045b6ee1b2bdb357ea1bd9435de0b07eda4053a</t>
         </is>
       </c>
+      <c r="B698" t="n">
+        <v>860</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -5325,6 +7407,9 @@
           <t>0xe109fa0fe69c2d1f382af82a0952b4a804893794</t>
         </is>
       </c>
+      <c r="B699" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -5332,6 +7417,9 @@
           <t>0xe14f29c22f47d1ca8dda796a6718c6bd0be0b3cf</t>
         </is>
       </c>
+      <c r="B700" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -5339,6 +7427,9 @@
           <t>0xe19154515df1845ad9354a5be86f5eeeb1b27eed</t>
         </is>
       </c>
+      <c r="B701" t="n">
+        <v>1861</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -5346,6 +7437,9 @@
           <t>0xe367fe584adad878b9174ea4ddd8571878016811</t>
         </is>
       </c>
+      <c r="B702" t="n">
+        <v>2768</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -5353,6 +7447,9 @@
           <t>0xe37b75941d9b8e3139e16a774faa2d9fb1fc9f28</t>
         </is>
       </c>
+      <c r="B703" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -5360,6 +7457,9 @@
           <t>0xe3ac32bbf9e3661c3aff4ee2f80706abaf7c7ea6</t>
         </is>
       </c>
+      <c r="B704" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -5367,6 +7467,9 @@
           <t>0xe5a974761bdd70fdbfe1184efbda0f3ddbe3c360</t>
         </is>
       </c>
+      <c r="B705" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -5374,6 +7477,9 @@
           <t>0xe5ad91cf8999e099fd9aa5d9399bff3d0a6f7612</t>
         </is>
       </c>
+      <c r="B706" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -5381,6 +7487,9 @@
           <t>0xe63760e74ffd44ce7abdb7ca2e7fa01b357df460</t>
         </is>
       </c>
+      <c r="B707" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -5388,6 +7497,9 @@
           <t>0xe649e289bc2a29e3c7beebd187ba3ee2b0cdc759</t>
         </is>
       </c>
+      <c r="B708" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -5395,6 +7507,9 @@
           <t>0xe64d5f33e28387855d33980719f27f0d579392af</t>
         </is>
       </c>
+      <c r="B709" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -5402,6 +7517,9 @@
           <t>0xe64e82ea6868e21939fc72294640bce304170f55</t>
         </is>
       </c>
+      <c r="B710" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -5409,6 +7527,9 @@
           <t>0xe64f9f5af35ee8dd53f0c503e55852e169de3b6b</t>
         </is>
       </c>
+      <c r="B711" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -5416,6 +7537,9 @@
           <t>0xe6e1c5ec0b5b1c5e8e61bf39a87a8d7775e47adc</t>
         </is>
       </c>
+      <c r="B712" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -5423,6 +7547,9 @@
           <t>0xe71467394718abf92b61b220b640f40e9e97f0e8</t>
         </is>
       </c>
+      <c r="B713" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -5430,6 +7557,9 @@
           <t>0xe75df3c68906f6adbe17e87d4e22509fde24c339</t>
         </is>
       </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -5437,6 +7567,9 @@
           <t>0xe76c8e784e2ba2e15e9a520c17e2dc7f9455aa3a</t>
         </is>
       </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -5444,6 +7577,9 @@
           <t>0xe7e3ae7e8efd83427b0306c6b828c42d9380e206</t>
         </is>
       </c>
+      <c r="B716" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -5451,6 +7587,9 @@
           <t>0xe7f3cf1bccd7e4c8c9648ba19b25fd832d56db7e</t>
         </is>
       </c>
+      <c r="B717" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -5458,6 +7597,9 @@
           <t>0xe86c98c75450075d096580f843fcd67a858ffd5f</t>
         </is>
       </c>
+      <c r="B718" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -5465,6 +7607,9 @@
           <t>0xe973dbf1e8c665fbc711ac5dbfdefefc1f70e2a0</t>
         </is>
       </c>
+      <c r="B719" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -5472,6 +7617,9 @@
           <t>0xe98945936dd2f04294afd798ed7036a8e9ba6acc</t>
         </is>
       </c>
+      <c r="B720" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -5479,6 +7627,9 @@
           <t>0xea10e348a32d0e8984c4fec3735813777bc0cb5b</t>
         </is>
       </c>
+      <c r="B721" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -5486,6 +7637,9 @@
           <t>0xea5725b707bf8605240ce1b123c9e580f460bc75</t>
         </is>
       </c>
+      <c r="B722" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -5493,6 +7647,9 @@
           <t>0xea663d14bf15b201dc5e0c63f718cabe5d03a325</t>
         </is>
       </c>
+      <c r="B723" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -5500,6 +7657,9 @@
           <t>0xea8b30b0bf4aefb965a8fdf0ccacafd17ad740ad</t>
         </is>
       </c>
+      <c r="B724" t="n">
+        <v>4434</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -5507,6 +7667,9 @@
           <t>0xeb0223b8610f7a2d2d8dfa1b98bb2eed8e162a9f</t>
         </is>
       </c>
+      <c r="B725" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -5514,6 +7677,9 @@
           <t>0xeb2b6b3f3fa0ea711ceb2ed77a23baeaf5ac0796</t>
         </is>
       </c>
+      <c r="B726" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -5521,6 +7687,9 @@
           <t>0xeb31c53605b2294fa5476326641d4a78ef2394ab</t>
         </is>
       </c>
+      <c r="B727" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -5528,6 +7697,9 @@
           <t>0xeb4245c88c660ae4ee23c76954e5490ccd7bbd82</t>
         </is>
       </c>
+      <c r="B728" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -5535,6 +7707,9 @@
           <t>0xeb62b8c5c4f0f5d59a7f060554c13e8f38f4de9f</t>
         </is>
       </c>
+      <c r="B729" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -5542,6 +7717,9 @@
           <t>0xeb84356cd552869cf60b7e5e164f681bfee92cde</t>
         </is>
       </c>
+      <c r="B730" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -5549,6 +7727,9 @@
           <t>0xebf8a19a681089bf9ea3c5583afa3479040e739e</t>
         </is>
       </c>
+      <c r="B731" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -5556,6 +7737,9 @@
           <t>0xec2374b274a8c04c0ec52dab10bc78078589ab62</t>
         </is>
       </c>
+      <c r="B732" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -5563,6 +7747,9 @@
           <t>0xec34d45fde0836d50ac8438f8442002b588435c0</t>
         </is>
       </c>
+      <c r="B733" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -5570,6 +7757,9 @@
           <t>0xec91406ed6b146cc3c7ae3cab9a96ac70eddd557</t>
         </is>
       </c>
+      <c r="B734" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -5577,6 +7767,9 @@
           <t>0xeca7f8aa63d1d28fafda5fdf021388b5d7166dee</t>
         </is>
       </c>
+      <c r="B735" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -5584,6 +7777,9 @@
           <t>0xece0429a5130ebe0616363939067eefca4fbaceb</t>
         </is>
       </c>
+      <c r="B736" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -5591,6 +7787,9 @@
           <t>0xed0c3e1d538fda7370c22c4c3f3dc076ab51bd00</t>
         </is>
       </c>
+      <c r="B737" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -5598,6 +7797,9 @@
           <t>0xed81af91c38ac12b0464bf1ca4b887469f7adaec</t>
         </is>
       </c>
+      <c r="B738" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -5605,6 +7807,9 @@
           <t>0xed846c2962df064b6fecc7029bc5cd366699cc7f</t>
         </is>
       </c>
+      <c r="B739" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -5612,6 +7817,9 @@
           <t>0xed9ed56f704cd8847eeb052fe5ae3294efb1dbb0</t>
         </is>
       </c>
+      <c r="B740" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -5619,6 +7827,9 @@
           <t>0xedcbfdf37c11aa36daaa6944386e494ae00e2d42</t>
         </is>
       </c>
+      <c r="B741" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -5626,6 +7837,9 @@
           <t>0xee8c282901c523d1933478d223f28d2a25c4b63a</t>
         </is>
       </c>
+      <c r="B742" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -5633,6 +7847,9 @@
           <t>0xef6338d6f390e36954355dcc13380df67b154247</t>
         </is>
       </c>
+      <c r="B743" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -5640,6 +7857,9 @@
           <t>0xef8a2c1bc94e630463293f71bf5414d13e80f62d</t>
         </is>
       </c>
+      <c r="B744" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -5647,6 +7867,9 @@
           <t>0xf01b26626550448606de2b6e7eeda1216d9cd239</t>
         </is>
       </c>
+      <c r="B745" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -5654,6 +7877,9 @@
           <t>0xf0a0116885943f5466cb50ed8cf50b15b3d45801</t>
         </is>
       </c>
+      <c r="B746" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -5661,6 +7887,9 @@
           <t>0xf0a924661b0263e5ce12756d07f45b8668c53380</t>
         </is>
       </c>
+      <c r="B747" t="n">
+        <v>704</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -5668,6 +7897,9 @@
           <t>0xf0eeb04b00a9c5bc026d22433c1d94315b7219db</t>
         </is>
       </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -5675,6 +7907,9 @@
           <t>0xf0ff1e6daeb276cee781fd6498f2eef5c66efc8e</t>
         </is>
       </c>
+      <c r="B749" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -5682,6 +7917,9 @@
           <t>0xf1c9ee019ae6efbaac06d3c08b1cbaa59b1ecb48</t>
         </is>
       </c>
+      <c r="B750" t="n">
+        <v>7829</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -5689,6 +7927,9 @@
           <t>0xf208b39639430081db0a776335886343a9c64d9a</t>
         </is>
       </c>
+      <c r="B751" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -5696,6 +7937,9 @@
           <t>0xf24204b6d574c3e280cc8b7e9554ae3912d66b33</t>
         </is>
       </c>
+      <c r="B752" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -5703,6 +7947,9 @@
           <t>0xf244176246168f24e3187f7288edbca29267739b</t>
         </is>
       </c>
+      <c r="B753" t="n">
+        <v>36881</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -5710,6 +7957,9 @@
           <t>0xf2e88e0bfe61e5e41d9317e82c6938e67a913cc1</t>
         </is>
       </c>
+      <c r="B754" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -5717,6 +7967,9 @@
           <t>0xf2eefee3c99cdb30c11d57b487a16690e813309b</t>
         </is>
       </c>
+      <c r="B755" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -5724,6 +7977,9 @@
           <t>0xf37aa5f945688488056f32112267570517bbc303</t>
         </is>
       </c>
+      <c r="B756" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -5731,6 +7987,9 @@
           <t>0xf3d71e8595497ff02a3a50416795fa9a4f2d2a34</t>
         </is>
       </c>
+      <c r="B757" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -5738,6 +7997,9 @@
           <t>0xf3dac8e171a13066f8964f74a7c87fd518e4e162</t>
         </is>
       </c>
+      <c r="B758" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -5745,6 +8007,9 @@
           <t>0xf41722815d3f774f52e658cfb68892aad74dd280</t>
         </is>
       </c>
+      <c r="B759" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -5752,6 +8017,9 @@
           <t>0xf443aaaf1e0770a078b5e1b783e68eb71c9e2f0f</t>
         </is>
       </c>
+      <c r="B760" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -5759,6 +8027,9 @@
           <t>0xf46dbdd823ff23efe1cd21f71f030c2e48c97fe9</t>
         </is>
       </c>
+      <c r="B761" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -5766,6 +8037,9 @@
           <t>0xf4f5683bc45bb1b3a3c61bb458006682d29d08a5</t>
         </is>
       </c>
+      <c r="B762" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -5773,6 +8047,9 @@
           <t>0xf5c3086d42cb2857ad5f52c134fc3e698e8e9edd</t>
         </is>
       </c>
+      <c r="B763" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -5780,6 +8057,9 @@
           <t>0xf60efc8e10692b111f7e73af821ccfdbcd78eb45</t>
         </is>
       </c>
+      <c r="B764" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -5787,6 +8067,9 @@
           <t>0xf6752df534a51f0acbe18d13491513a756f0b796</t>
         </is>
       </c>
+      <c r="B765" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -5794,6 +8077,9 @@
           <t>0xf6c2f18b4c00da70562ef15293203baee6401471</t>
         </is>
       </c>
+      <c r="B766" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -5801,6 +8087,9 @@
           <t>0xf77cead5b85f379aa7b9031a842ccd903d7966a7</t>
         </is>
       </c>
+      <c r="B767" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -5808,6 +8097,9 @@
           <t>0xf7a1a5eed7dab1a7bcda127b43dfaa1ff1800888</t>
         </is>
       </c>
+      <c r="B768" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -5815,6 +8107,9 @@
           <t>0xf7c83bd0c50e7a72b55a39fe0dabf5e3a330d749</t>
         </is>
       </c>
+      <c r="B769" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -5822,6 +8117,9 @@
           <t>0xf7ed56c1ac4d038e367a987258b86fc883b960a1</t>
         </is>
       </c>
+      <c r="B770" t="n">
+        <v>11107</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -5829,6 +8127,9 @@
           <t>0xf7f6b7164fb3ab456715d2e8b84e8baac8bd09a9</t>
         </is>
       </c>
+      <c r="B771" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -5836,6 +8137,9 @@
           <t>0xf84c61bb982041c030b8580d1634f00fffb89059</t>
         </is>
       </c>
+      <c r="B772" t="n">
+        <v>13705</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -5843,6 +8147,9 @@
           <t>0xf886c9d089103f9af130c857bd58cc56f4b989b7</t>
         </is>
       </c>
+      <c r="B773" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -5850,6 +8157,9 @@
           <t>0xf8a15b1540d5f9d002d9ccb7fd1f23e795c2859d</t>
         </is>
       </c>
+      <c r="B774" t="n">
+        <v>13910</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -5857,6 +8167,9 @@
           <t>0xf8a5f0be78b60ecb992a1765661d67c27d7a1a2b</t>
         </is>
       </c>
+      <c r="B775" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -5864,6 +8177,9 @@
           <t>0xf8d039575188d85b27b4250f3f81d270e10821a0</t>
         </is>
       </c>
+      <c r="B776" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -5871,6 +8187,9 @@
           <t>0xf924d74bb9f13c6e22774a14edbe5f206c7ab7d7</t>
         </is>
       </c>
+      <c r="B777" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -5878,6 +8197,9 @@
           <t>0xf9443567be046bef6c5df5b0dcbc459c2d971107</t>
         </is>
       </c>
+      <c r="B778" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -5885,6 +8207,9 @@
           <t>0xf982d94c1077349fe8db61ef49ef0ba7c6e11774</t>
         </is>
       </c>
+      <c r="B779" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -5892,6 +8217,9 @@
           <t>0xfa0fe74319632eacbf009e846680e896ee4e2d02</t>
         </is>
       </c>
+      <c r="B780" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -5899,6 +8227,9 @@
           <t>0xfa1d63b87f40c92d27bfb255419c1ea8c49086de</t>
         </is>
       </c>
+      <c r="B781" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -5906,6 +8237,9 @@
           <t>0xfa67c39935de407b98172ab9a07291603e98a51a</t>
         </is>
       </c>
+      <c r="B782" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -5913,6 +8247,9 @@
           <t>0xfaa183ac925268122498945ce287817b126f453b</t>
         </is>
       </c>
+      <c r="B783" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -5920,6 +8257,9 @@
           <t>0xfaac705fb942836070fd11c6fb1bd784e9ce48a5</t>
         </is>
       </c>
+      <c r="B784" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -5927,6 +8267,9 @@
           <t>0xfab74b212c52e35722ceb0338db244390edd2887</t>
         </is>
       </c>
+      <c r="B785" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -5934,6 +8277,9 @@
           <t>0xfabe292d8019bfa02e5fead2c78ef71a1bf35ce8</t>
         </is>
       </c>
+      <c r="B786" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -5941,6 +8287,9 @@
           <t>0xfae0300c03a1ea898176bcb39f919c559f64f4ff</t>
         </is>
       </c>
+      <c r="B787" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -5948,6 +8297,9 @@
           <t>0xfafac683338ed169b7707cb7c0487b2cb9f81e77</t>
         </is>
       </c>
+      <c r="B788" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -5955,6 +8307,9 @@
           <t>0xfb072e58741738fc26e86d2c49db3179ea8d5d55</t>
         </is>
       </c>
+      <c r="B789" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -5962,6 +8317,9 @@
           <t>0xfb486bc995129042f99407282e926529d8e54451</t>
         </is>
       </c>
+      <c r="B790" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -5969,6 +8327,9 @@
           <t>0xfb761cb44c5c5a98e7ff1c90c01c0249acaeaeb8</t>
         </is>
       </c>
+      <c r="B791" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -5976,6 +8337,9 @@
           <t>0xfb79ef13bdb236a8e51205437bfe725adc7899de</t>
         </is>
       </c>
+      <c r="B792" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -5983,6 +8347,9 @@
           <t>0xfbde2d49c82f7ddf5dcdfbf221e159d7ce471928</t>
         </is>
       </c>
+      <c r="B793" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -5990,6 +8357,9 @@
           <t>0xfbe2538331f9f8fd522f7f5cdad931c39c82b30e</t>
         </is>
       </c>
+      <c r="B794" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -5997,6 +8367,9 @@
           <t>0xfbf9ae92ecb05bc436d9b1e6c1d928824aedb2f1</t>
         </is>
       </c>
+      <c r="B795" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -6004,6 +8377,9 @@
           <t>0xfc8bc68b8f8b6a45474f9276c4bc85cfc6f8dbd8</t>
         </is>
       </c>
+      <c r="B796" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -6011,6 +8387,9 @@
           <t>0xfcd70fcc82e94dac57b75d5099f8b2f07fc5786c</t>
         </is>
       </c>
+      <c r="B797" t="n">
+        <v>793</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -6018,6 +8397,9 @@
           <t>0xfcdf26c39476d7e61b44199af2ea5d2881d0e349</t>
         </is>
       </c>
+      <c r="B798" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -6025,6 +8407,9 @@
           <t>0xfce151195f62ab55c117960216466f6d22dfa2a1</t>
         </is>
       </c>
+      <c r="B799" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -6032,6 +8417,9 @@
           <t>0xfced71adb501ffa157c02a08e0a2f608c7e9368b</t>
         </is>
       </c>
+      <c r="B800" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -6039,6 +8427,9 @@
           <t>0xfd0a34daa2117eab97f65495ffa4acf9e1452db0</t>
         </is>
       </c>
+      <c r="B801" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -6046,6 +8437,9 @@
           <t>0xfda2e0437f974c9312ca6740c07181178f645fa9</t>
         </is>
       </c>
+      <c r="B802" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -6053,6 +8447,9 @@
           <t>0xfeac34425a3ba2fafbbeedb367ac5f4b4bb701d2</t>
         </is>
       </c>
+      <c r="B803" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -6060,6 +8457,9 @@
           <t>0xfed8dfb896ff7081851c56a2652240568d2c513f</t>
         </is>
       </c>
+      <c r="B804" t="n">
+        <v>2818</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -6067,6 +8467,9 @@
           <t>0xff0d1d8d7d3599de7cf9a762feaf837e9bc17209</t>
         </is>
       </c>
+      <c r="B805" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -6074,12 +8477,18 @@
           <t>0xff873e1c70c910edd8542dcdebb47c8ea5c6192f</t>
         </is>
       </c>
+      <c r="B806" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
           <t>0xffcf7f75602157e36fbe09047e7fafaf69e530e8</t>
         </is>
+      </c>
+      <c r="B807" t="n">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/result_1/Suicidal contract.xlsx
+++ b/result_1/Suicidal contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE324DD-8301-4393-A441-44DA72C54333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525ACDC0-AE0B-4688-BF45-608521277F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result_1/Suicidal contract.xlsx
+++ b/result_1/Suicidal contract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525ACDC0-AE0B-4688-BF45-608521277F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528F66C-F566-429A-9E85-9EE136F860CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16344" yWindow="3648" windowWidth="12144" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
